--- a/Portfolio/天天基金对账单记录.xlsx
+++ b/Portfolio/天天基金对账单记录.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20342"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A8396A-4AF9-464F-9472-28FA9B03C967}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C97A2F4-C065-4BD2-BBCB-ED3CC86D48FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1710" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="账户净资产" sheetId="4" r:id="rId1"/>
@@ -17,12 +17,17 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId4"/>
-    <pivotCache cacheId="25" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -65,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="82">
   <si>
     <t>确认日期</t>
   </si>
@@ -323,9 +328,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="0.000"/>
-    <numFmt numFmtId="181" formatCode="000000"/>
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="000000"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -412,11 +417,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -427,7 +432,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -545,7 +550,7 @@
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="基金代码" numFmtId="181">
+    <cacheField name="基金代码" numFmtId="177">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="71" maxValue="519977"/>
     </cacheField>
     <cacheField name="基金简称" numFmtId="0">
@@ -566,7 +571,7 @@
     <cacheField name="手续费" numFmtId="2">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="29.96"/>
     </cacheField>
-    <cacheField name="确认净值" numFmtId="180">
+    <cacheField name="确认净值" numFmtId="176">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1.7130000000000001"/>
     </cacheField>
     <cacheField name="关联银行卡" numFmtId="0">
@@ -611,13 +616,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作者" refreshedDate="43567.363952430554" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="450" xr:uid="{C033EEDA-25AE-45D2-A884-507C1BCA2039}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作者" refreshedDate="43625.478567013888" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="534" xr:uid="{1BD5F059-C7AE-4EE0-B1AB-F256C2BC891F}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G451" sheet="分红信息"/>
+    <worksheetSource ref="A1:G535" sheet="分红信息"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="确认日期" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-01-19T00:00:00" maxDate="2019-04-12T00:00:00" count="186">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-01-19T00:00:00" maxDate="2019-06-01T00:00:00" count="219">
         <d v="2018-01-19T00:00:00"/>
         <d v="2018-07-02T00:00:00"/>
         <d v="2018-07-10T00:00:00"/>
@@ -804,9 +809,42 @@
         <d v="2019-04-09T00:00:00"/>
         <d v="2019-04-10T00:00:00"/>
         <d v="2019-04-11T00:00:00"/>
+        <d v="2019-04-12T00:00:00"/>
+        <d v="2019-04-15T00:00:00"/>
+        <d v="2019-04-16T00:00:00"/>
+        <d v="2019-04-17T00:00:00"/>
+        <d v="2019-04-18T00:00:00"/>
+        <d v="2019-04-19T00:00:00"/>
+        <d v="2019-04-22T00:00:00"/>
+        <d v="2019-04-23T00:00:00"/>
+        <d v="2019-04-24T00:00:00"/>
+        <d v="2019-04-25T00:00:00"/>
+        <d v="2019-04-26T00:00:00"/>
+        <d v="2019-04-29T00:00:00"/>
+        <d v="2019-04-30T00:00:00"/>
+        <d v="2019-05-06T00:00:00"/>
+        <d v="2019-05-07T00:00:00"/>
+        <d v="2019-05-08T00:00:00"/>
+        <d v="2019-05-09T00:00:00"/>
+        <d v="2019-05-10T00:00:00"/>
+        <d v="2019-05-13T00:00:00"/>
+        <d v="2019-05-14T00:00:00"/>
+        <d v="2019-05-15T00:00:00"/>
+        <d v="2019-05-16T00:00:00"/>
+        <d v="2019-05-17T00:00:00"/>
+        <d v="2019-05-20T00:00:00"/>
+        <d v="2019-05-21T00:00:00"/>
+        <d v="2019-05-22T00:00:00"/>
+        <d v="2019-05-23T00:00:00"/>
+        <d v="2019-05-24T00:00:00"/>
+        <d v="2019-05-27T00:00:00"/>
+        <d v="2019-05-28T00:00:00"/>
+        <d v="2019-05-29T00:00:00"/>
+        <d v="2019-05-30T00:00:00"/>
+        <d v="2019-05-31T00:00:00"/>
       </sharedItems>
       <fieldGroup par="8" base="0">
-        <rangePr groupBy="months" startDate="2018-01-19T00:00:00" endDate="2019-04-12T00:00:00"/>
+        <rangePr groupBy="months" startDate="2018-01-19T00:00:00" endDate="2019-06-01T00:00:00"/>
         <groupItems count="14">
           <s v="&lt;2018/1/19"/>
           <s v="1月"/>
@@ -821,59 +859,49 @@
           <s v="10月"/>
           <s v="11月"/>
           <s v="12月"/>
-          <s v="&gt;2019/4/12"/>
+          <s v="&gt;2019/6/1"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="基金代码" numFmtId="181">
+    <cacheField name="基金代码" numFmtId="177">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="588" maxValue="161017"/>
     </cacheField>
     <cacheField name="基金简称" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="分红方式" numFmtId="0">
-      <sharedItems count="1">
-        <s v="红利再投资"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="分红金额" numFmtId="0">
-      <sharedItems count="1">
-        <s v="--"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="红利再投份额" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.01" maxValue="1085.17"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.2" maxValue="1085.17"/>
     </cacheField>
     <cacheField name="确认净值" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="1" maxValue="1.591" count="5">
-        <n v="1.2150000000000001"/>
-        <n v="1"/>
-        <s v="--"/>
-        <n v="1.4610000000000001"/>
-        <n v="1.591"/>
-      </sharedItems>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="1" maxValue="1.649"/>
     </cacheField>
     <cacheField name="季度" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="quarters" startDate="2018-01-19T00:00:00" endDate="2019-04-12T00:00:00"/>
+        <rangePr groupBy="quarters" startDate="2018-01-19T00:00:00" endDate="2019-06-01T00:00:00"/>
         <groupItems count="6">
           <s v="&lt;2018/1/19"/>
           <s v="第一季"/>
           <s v="第二季"/>
           <s v="第三季"/>
           <s v="第四季"/>
-          <s v="&gt;2019/4/12"/>
+          <s v="&gt;2019/6/1"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="年" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="years" startDate="2018-01-19T00:00:00" endDate="2019-04-12T00:00:00"/>
+        <rangePr groupBy="years" startDate="2018-01-19T00:00:00" endDate="2019-06-01T00:00:00"/>
         <groupItems count="4">
           <s v="&lt;2018/1/19"/>
           <s v="2018年"/>
           <s v="2019年"/>
-          <s v="&gt;2019/4/12"/>
+          <s v="&gt;2019/6/1"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -3401,4062 +3429,4818 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="450">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="534">
   <r>
     <x v="0"/>
     <n v="100032"/>
     <s v="富国中证红利指数增强"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="1085.17"/>
-    <x v="0"/>
+    <n v="1.2150000000000001"/>
   </r>
   <r>
     <x v="1"/>
     <n v="891"/>
     <s v="博时现金宝货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="39.700000000000003"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="2"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.54"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="2"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.4300000000000002"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="2"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.3199999999999998"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="3"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.17"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="3"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.42"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="3"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.2599999999999998"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="3"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.11"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="3"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="1.83"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="4"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.19"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="4"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.19"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="4"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.17"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="4"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.4"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="4"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.12"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.7"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.9"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.65"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.64"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.27"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="6"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.7"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.7"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.7"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="9.1300000000000008"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="8.0299999999999994"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="7.77"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="6.74"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="7"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.68"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="7"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.7"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="7"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.25"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="7"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.91"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="7"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.6"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="8"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.71"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="8"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.2200000000000002"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="8"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.67"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="8"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.1"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="8"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.5299999999999998"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="9"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.13"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="9"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.19"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="9"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.67"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="9"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.89"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="9"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.56"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="10"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.9"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="10"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.85"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="10"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.25"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="10"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.66"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="10"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.5099999999999998"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="11"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.66"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="11"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.66"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="11"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.66"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="11"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="9.01"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="11"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="8.36"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="11"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="7.51"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="11"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="7.02"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="12"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.8"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="12"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.73"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="12"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.82"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="12"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.21"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="12"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.68"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="13"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.5"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="13"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.66"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="13"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.78"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="13"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.61"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="13"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.4"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="14"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.67"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="14"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.76"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="14"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.6"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="14"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.59"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="14"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.37"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="15"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.67"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="15"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.72"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="15"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.57"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="15"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.4500000000000002"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="15"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.4500000000000002"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="16"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.67"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="16"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.67"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="16"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.67"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="16"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="8.68"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="16"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="7.99"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="16"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="7.51"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="16"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="6.99"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="17"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.67"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="17"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.75"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="17"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.14"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="17"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.46"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="17"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.33"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="18"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.76"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="18"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.57"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="18"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.84"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="18"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.68"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="18"/>
     <n v="891"/>
     <s v="博时现金宝货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="91.55"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="18"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.35"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="19"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.66"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="19"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.76"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="19"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.4700000000000002"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="19"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.34"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="19"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.29"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="20"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.6"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="20"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.64"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="20"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.5"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="20"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.2999999999999998"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="20"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.6"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="21"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.64"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="21"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.64"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="21"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.64"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="21"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="7.53"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="21"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="6.95"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="21"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="7.45"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="21"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="7.34"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="22"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.4900000000000002"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="22"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.4"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="22"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.38"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="22"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.64"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="22"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.36"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="23"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.63"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="23"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.4900000000000002"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="23"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.83"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="23"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.38"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="23"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.2400000000000002"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="24"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.63"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="24"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.5099999999999998"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="24"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.89"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="24"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.73"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="24"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.08"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="25"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.87"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="25"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.39"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="25"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.63"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="25"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.4900000000000002"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="25"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.37"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="26"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.63"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="26"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.63"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="26"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.63"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="26"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="7.17"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="26"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="7.52"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="26"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="8.7799999999999994"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="26"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="6.08"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="27"/>
     <n v="588"/>
     <s v="招商招钱宝货币A"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.62"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="27"/>
     <n v="600"/>
     <s v="汇添富和聚宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.5"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="27"/>
     <n v="709"/>
     <s v="华安汇财通货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.38"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="27"/>
     <n v="3003"/>
     <s v="华夏现金增利货币A/E"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.13"/>
-    <x v="2"/>
+    <s v="--"/>
   </r>
   <r>
     <x v="27"/>
     <n v="638"/>
     <s v="富国富钱包货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.76"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="28"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="9.19"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="28"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="8.9"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="29"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="8.52"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="29"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="8.76"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="30"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="8.84"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="30"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="8.76"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="31"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="25.38"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="31"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="27.05"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="32"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="8.7100000000000009"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="32"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="7.34"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="33"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="6.49"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="33"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="8.4"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="34"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="8.75"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="34"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="6.33"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="35"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="8.57"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="35"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="6.8"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="36"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="25.37"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="36"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="19.29"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="37"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="8.4499999999999993"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="37"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="6.46"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="38"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="8.41"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="38"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="6.56"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="39"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="6.43"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="39"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="8.56"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="40"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="8.69"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="40"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="6.36"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="41"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="24.92"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="41"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="19.07"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="42"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="7.52"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="42"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="6.36"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="43"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="6.31"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="43"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="7.5"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="44"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="7.53"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="44"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="6.28"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="45"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="16.440000000000001"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="45"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="15.84"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="46"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="46.35"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="46"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="46.29"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="47"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="15.42"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="47"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="15.32"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="48"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="15.79"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="48"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="15.15"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="49"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="14.77"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="49"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="14.48"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="50"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="15.46"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="50"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="14.89"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="51"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="42.62"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="51"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="44.27"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="52"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="14.64"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="52"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="14.28"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="53"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="14.12"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="53"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="14.49"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="54"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.81"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="54"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="15.57"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="55"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="16.47"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="55"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.92"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="56"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="55.14"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="56"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="55.77"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="57"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.84"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="57"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="14.05"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="58"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="14.07"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="58"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.48"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="59"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.27"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="59"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="14.15"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="60"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="143.13"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="60"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="127.34"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="61"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="12.71"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="61"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="11.82"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="62"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="11.26"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="62"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="12.71"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="63"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="12.84"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="63"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="11.26"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="64"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="12.23"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="64"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="11.23"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="65"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="31.93"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="65"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="36.409999999999997"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="66"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="11.61"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="66"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="10.68"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="67"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="11.88"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="67"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="9.43"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="68"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="9.44"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="68"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="11.81"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="69"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="11.61"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="69"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="9.44"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="70"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="34.130000000000003"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="70"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="33.15"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="71"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="11.5"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="71"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="10.79"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="72"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="10.86"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="72"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="11.52"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="73"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.12"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="73"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="10.89"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="74"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="11.6"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="74"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="12.73"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="75"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="32.74"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="75"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="36.19"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="76"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="11.85"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="76"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="10.96"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="77"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="11.4"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="77"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="10.97"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="78"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.93"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="78"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.7"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="79"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.16"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="79"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.02"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="80"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="39"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="80"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="15"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="81"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.05"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="81"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.08"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="82"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="82"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.4"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="83"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.82"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="83"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.0599999999999996"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="84"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.07"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="84"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.08"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="85"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="15.43"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="85"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="39.06"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="86"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.07"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="86"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.06"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="87"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.0999999999999996"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="87"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="15.55"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="88"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.15"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="88"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="15.08"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="89"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.0999999999999996"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="89"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="15.78"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="89"/>
     <n v="100038"/>
     <s v="富国沪深300指数增强"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="855.99"/>
-    <x v="3"/>
+    <n v="1.4610000000000001"/>
   </r>
   <r>
     <x v="89"/>
     <n v="161017"/>
     <s v="富国中证500"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="441.92"/>
-    <x v="4"/>
+    <n v="1.591"/>
   </r>
   <r>
     <x v="90"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="39.659999999999997"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="90"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="15.16"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="91"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.16"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="91"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.42"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="92"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.01"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="92"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.16"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="93"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.01"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="93"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.2"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="94"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.4"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="94"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.21"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="95"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="39.74"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="95"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="15.35"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="96"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.17"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="96"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.14"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="97"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.2"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="97"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.36"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="98"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.07"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="98"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.57"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="99"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.58"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="99"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.35"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="100"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.06"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="100"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="39.82"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="101"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="10.36"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="101"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.46"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="102"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.46"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="102"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="10.3"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="103"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.43"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="103"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="10.31"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="104"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.4400000000000004"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="104"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="10.32"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="105"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.53"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="105"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="31.05"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="106"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.46"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="106"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="10.39"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="107"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.45"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="107"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="10.47"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="108"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="10.43"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="108"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.43"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="109"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.41"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="109"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="10.44"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="110"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.1"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="110"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="31.35"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="111"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.58"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="111"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="10.42"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="112"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.76"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="112"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="1.2"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="113"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.26"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="113"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="1.21"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="114"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.22"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="114"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="1.21"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="115"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="12.62"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="115"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.66"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="116"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.25"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="116"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="1.22"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="117"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.6900000000000004"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="117"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="1.22"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="118"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.76"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="118"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="1.2"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="119"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.34"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="119"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="1.22"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="120"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="18.84"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="121"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.0999999999999996"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="122"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.33"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="123"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="12.2"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="124"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.1500000000000004"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="125"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="126"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.99"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="127"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.76"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="128"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="10.57"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="129"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.75"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="129"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.66"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="130"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.6"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="130"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.75"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="131"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.78"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="131"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.16"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="132"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.74"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="132"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.17"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="133"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="11.11"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="133"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="6.47"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="134"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.82"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="134"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.17"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="135"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.69"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="135"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.17"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="136"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.77"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="136"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.17"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="137"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.17"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="137"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.83"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="138"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="11.17"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="138"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="6.54"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="139"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.96"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="139"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.1800000000000002"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="140"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.0599999999999996"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="140"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.19"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="141"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.1399999999999997"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="141"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.19"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="142"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.03"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="142"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.1800000000000002"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="143"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="30.64"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="143"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="10"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="144"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.14"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="144"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="1.01"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="145"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.21"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="145"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.73"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="146"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.18"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="146"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.72"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="147"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.25"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="147"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.71"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="148"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="10.98"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="148"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="9.5399999999999991"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="149"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.69"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="149"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.16"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="150"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.17"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="150"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.67"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="151"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.23"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="151"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.67"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="152"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.14"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="152"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.69"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="153"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="9.4700000000000006"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="153"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="10.89"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="154"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="2.98"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="154"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.63"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="155"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.24"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="155"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.63"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="156"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.08"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="156"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.63"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="157"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.62"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="157"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.05"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="158"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="10.81"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="158"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="9.19"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="159"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.6"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="159"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.19"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="160"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.2"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="160"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.6"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="161"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.16"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="161"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.56"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="162"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.13"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="162"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.52"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="163"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="9.52"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="163"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="15.54"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="164"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.59"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="164"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.19"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="165"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.01"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="165"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.15"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="166"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.59"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="166"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.38"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="167"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.1100000000000003"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="167"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.53"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="168"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="13.26"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="168"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="15.19"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="169"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.41"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="169"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.08"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="170"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.3600000000000003"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="170"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.1100000000000003"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="171"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.3499999999999996"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="171"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.09"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="172"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.3600000000000003"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="172"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.13"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="173"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="12.94"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="173"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="15.32"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="174"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.3099999999999996"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="174"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.13"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="175"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.26"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="175"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.19"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="176"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.2699999999999996"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="176"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.18"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="177"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.2"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="177"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="5.18"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="178"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="12.31"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="178"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="11.12"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="179"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.07"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="179"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.77"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="180"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.04"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="180"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.96"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="181"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.97"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="181"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.98"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="182"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="15.6"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="182"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="16.07"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="183"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.93"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="183"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.94"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="184"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.93"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="184"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.43"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="185"/>
     <n v="3474"/>
     <s v="南方天天利货币Ｂ"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="3.81"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="185"/>
     <n v="1666"/>
     <s v="鹏华添利宝货币"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
     <n v="4.01"/>
-    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="186"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.77"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="186"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.77"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="187"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="11.32"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="187"/>
+    <n v="110027"/>
+    <s v="易方达安心回报债券A"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="87.34"/>
+    <n v="1.649"/>
+  </r>
+  <r>
+    <x v="187"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="11.25"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="188"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.77"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="188"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.66"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="189"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.64"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="189"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.79"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="190"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="190"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.75"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="191"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.69"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="191"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.8"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="192"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="10.9"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="192"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="11.31"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="193"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.66"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="193"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.73"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="194"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.93"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="194"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.78"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="195"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.96"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="195"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.79"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="196"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="4.0599999999999996"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="196"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.71"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="197"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="11.02"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="197"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="11.4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="198"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="4.42"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="198"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.32"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="199"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="21.28"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="199"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="20.04"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="200"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.36"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="200"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.53"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="201"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.25"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="201"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.51"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="202"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.25"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="202"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="202"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.88"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="203"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.82"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="203"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.23"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="203"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="204"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="10.81"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="204"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="9.65"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="204"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.61"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="205"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.23"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="205"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="205"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.72"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="206"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.72"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="206"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.23"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="206"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="207"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.52"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="207"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.23"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="207"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="208"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.72"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="208"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.51"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="208"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="209"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="10.47"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="209"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="10.49"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="209"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.61"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="210"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.81"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="210"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.52"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="210"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="211"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.54"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="211"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.54"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="211"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="212"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.47"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="212"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.55"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="212"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="213"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.56"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="213"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="213"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.64"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="214"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="10.47"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="214"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="10.72"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="214"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.62"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="215"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.67"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="215"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.56"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="215"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="216"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.73"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="216"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.62"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="216"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="217"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.62"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="217"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="217"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.5"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="218"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.64"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="218"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="218"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.68"/>
+    <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB0D7E55-2375-4A56-B10A-44DE88D8D7F5}" name="数据透视表6" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB0D7E55-2375-4A56-B10A-44DE88D8D7F5}" name="数据透视表6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M2:O26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -7478,14 +8262,14 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="181" showAll="0"/>
+    <pivotField numFmtId="177" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="2" showAll="0"/>
     <pivotField numFmtId="2" showAll="0"/>
     <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="180" showAll="0"/>
+    <pivotField numFmtId="176" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0">
@@ -7617,8 +8401,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2DC797BD-F228-418E-8857-7449A35E22CB}" name="数据透视表8" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I2:J16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7262F558-418B-4C0E-B258-21AD1618815F}" name="数据透视表1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I2:J17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
       <items count="15">
@@ -7639,31 +8423,12 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="181" showAll="0"/>
+    <pivotField numFmtId="177" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="7">
         <item sd="0" x="0"/>
@@ -7689,7 +8454,7 @@
     <field x="8"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="15">
     <i>
       <x v="1"/>
     </i>
@@ -7728,6 +8493,9 @@
     </i>
     <i r="1">
       <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -8016,8 +8784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D59B494-3E84-4DBE-A33D-1CFBEA153B0C}">
   <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8777,8 +9545,8 @@
   <dimension ref="A1:O194"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F197" sqref="F197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16019,10 +16787,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C472EC2-BF49-4D48-843D-D6F2646F1A49}">
-  <dimension ref="A1:J451"/>
+  <dimension ref="A1:J535"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16347,7 +17115,7 @@
         <v>76</v>
       </c>
       <c r="J11" s="16">
-        <v>680.1400000000001</v>
+        <v>1132.4100000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -16463,7 +17231,7 @@
         <v>67</v>
       </c>
       <c r="J15" s="16">
-        <v>102.94000000000001</v>
+        <v>333.17999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -16488,14 +17256,14 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16" s="15" t="s">
-        <v>61</v>
+      <c r="I16" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="J16" s="16">
-        <v>6336.1600000000008</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>222.03000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43294</v>
       </c>
@@ -16517,8 +17285,14 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I17" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="16">
+        <v>6788.4300000000012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43294</v>
       </c>
@@ -16541,7 +17315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43294</v>
       </c>
@@ -16564,7 +17338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43294</v>
       </c>
@@ -16587,7 +17361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43294</v>
       </c>
@@ -16610,7 +17384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43297</v>
       </c>
@@ -16633,7 +17407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43297</v>
       </c>
@@ -16656,7 +17430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43297</v>
       </c>
@@ -16679,7 +17453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43297</v>
       </c>
@@ -16702,7 +17476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43297</v>
       </c>
@@ -16725,7 +17499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43297</v>
       </c>
@@ -16748,7 +17522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43297</v>
       </c>
@@ -16771,7 +17545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43298</v>
       </c>
@@ -16794,7 +17568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43298</v>
       </c>
@@ -16817,7 +17591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43298</v>
       </c>
@@ -16840,7 +17614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43298</v>
       </c>
@@ -26500,9 +27274,1941 @@
         <v>1</v>
       </c>
     </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B452" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C452" t="s">
+        <v>7</v>
+      </c>
+      <c r="D452" t="s">
+        <v>8</v>
+      </c>
+      <c r="E452" t="s">
+        <v>9</v>
+      </c>
+      <c r="F452">
+        <v>3.77</v>
+      </c>
+      <c r="G452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A453" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B453" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C453" t="s">
+        <v>10</v>
+      </c>
+      <c r="D453" t="s">
+        <v>8</v>
+      </c>
+      <c r="E453" t="s">
+        <v>9</v>
+      </c>
+      <c r="F453">
+        <v>3.77</v>
+      </c>
+      <c r="G453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A454" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B454" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C454" t="s">
+        <v>10</v>
+      </c>
+      <c r="D454" t="s">
+        <v>8</v>
+      </c>
+      <c r="E454" t="s">
+        <v>9</v>
+      </c>
+      <c r="F454">
+        <v>11.32</v>
+      </c>
+      <c r="G454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A455" s="2">
+        <v>43570</v>
+      </c>
+      <c r="B455" s="10">
+        <v>110027</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D455" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E455" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F455" s="4">
+        <v>87.34</v>
+      </c>
+      <c r="G455" s="4">
+        <v>1.649</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A456" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B456" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C456" t="s">
+        <v>7</v>
+      </c>
+      <c r="D456" t="s">
+        <v>8</v>
+      </c>
+      <c r="E456" t="s">
+        <v>9</v>
+      </c>
+      <c r="F456">
+        <v>11.25</v>
+      </c>
+      <c r="G456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A457" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B457" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C457" t="s">
+        <v>10</v>
+      </c>
+      <c r="D457" t="s">
+        <v>8</v>
+      </c>
+      <c r="E457" t="s">
+        <v>9</v>
+      </c>
+      <c r="F457">
+        <v>3.77</v>
+      </c>
+      <c r="G457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A458" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B458" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C458" t="s">
+        <v>7</v>
+      </c>
+      <c r="D458" t="s">
+        <v>8</v>
+      </c>
+      <c r="E458" t="s">
+        <v>9</v>
+      </c>
+      <c r="F458">
+        <v>3.66</v>
+      </c>
+      <c r="G458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A459" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B459" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C459" t="s">
+        <v>7</v>
+      </c>
+      <c r="D459" t="s">
+        <v>8</v>
+      </c>
+      <c r="E459" t="s">
+        <v>9</v>
+      </c>
+      <c r="F459">
+        <v>3.64</v>
+      </c>
+      <c r="G459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A460" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B460" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C460" t="s">
+        <v>10</v>
+      </c>
+      <c r="D460" t="s">
+        <v>8</v>
+      </c>
+      <c r="E460" t="s">
+        <v>9</v>
+      </c>
+      <c r="F460">
+        <v>3.79</v>
+      </c>
+      <c r="G460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A461" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B461" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C461" t="s">
+        <v>7</v>
+      </c>
+      <c r="D461" t="s">
+        <v>8</v>
+      </c>
+      <c r="E461" t="s">
+        <v>9</v>
+      </c>
+      <c r="F461">
+        <v>3.7</v>
+      </c>
+      <c r="G461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A462" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B462" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C462" t="s">
+        <v>10</v>
+      </c>
+      <c r="D462" t="s">
+        <v>8</v>
+      </c>
+      <c r="E462" t="s">
+        <v>9</v>
+      </c>
+      <c r="F462">
+        <v>3.75</v>
+      </c>
+      <c r="G462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A463" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B463" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C463" t="s">
+        <v>7</v>
+      </c>
+      <c r="D463" t="s">
+        <v>8</v>
+      </c>
+      <c r="E463" t="s">
+        <v>9</v>
+      </c>
+      <c r="F463">
+        <v>3.69</v>
+      </c>
+      <c r="G463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B464" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C464" t="s">
+        <v>10</v>
+      </c>
+      <c r="D464" t="s">
+        <v>8</v>
+      </c>
+      <c r="E464" t="s">
+        <v>9</v>
+      </c>
+      <c r="F464">
+        <v>3.8</v>
+      </c>
+      <c r="G464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A465" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B465" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C465" t="s">
+        <v>7</v>
+      </c>
+      <c r="D465" t="s">
+        <v>8</v>
+      </c>
+      <c r="E465" t="s">
+        <v>9</v>
+      </c>
+      <c r="F465">
+        <v>10.9</v>
+      </c>
+      <c r="G465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A466" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B466" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C466" t="s">
+        <v>10</v>
+      </c>
+      <c r="D466" t="s">
+        <v>8</v>
+      </c>
+      <c r="E466" t="s">
+        <v>9</v>
+      </c>
+      <c r="F466">
+        <v>11.31</v>
+      </c>
+      <c r="G466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A467" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B467" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C467" t="s">
+        <v>7</v>
+      </c>
+      <c r="D467" t="s">
+        <v>8</v>
+      </c>
+      <c r="E467" t="s">
+        <v>9</v>
+      </c>
+      <c r="F467">
+        <v>3.66</v>
+      </c>
+      <c r="G467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A468" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B468" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C468" t="s">
+        <v>10</v>
+      </c>
+      <c r="D468" t="s">
+        <v>8</v>
+      </c>
+      <c r="E468" t="s">
+        <v>9</v>
+      </c>
+      <c r="F468">
+        <v>3.73</v>
+      </c>
+      <c r="G468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A469" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B469" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C469" t="s">
+        <v>7</v>
+      </c>
+      <c r="D469" t="s">
+        <v>8</v>
+      </c>
+      <c r="E469" t="s">
+        <v>9</v>
+      </c>
+      <c r="F469">
+        <v>3.93</v>
+      </c>
+      <c r="G469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A470" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B470" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C470" t="s">
+        <v>10</v>
+      </c>
+      <c r="D470" t="s">
+        <v>8</v>
+      </c>
+      <c r="E470" t="s">
+        <v>9</v>
+      </c>
+      <c r="F470">
+        <v>3.78</v>
+      </c>
+      <c r="G470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A471" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B471" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C471" t="s">
+        <v>7</v>
+      </c>
+      <c r="D471" t="s">
+        <v>8</v>
+      </c>
+      <c r="E471" t="s">
+        <v>9</v>
+      </c>
+      <c r="F471">
+        <v>3.96</v>
+      </c>
+      <c r="G471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A472" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B472" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C472" t="s">
+        <v>10</v>
+      </c>
+      <c r="D472" t="s">
+        <v>8</v>
+      </c>
+      <c r="E472" t="s">
+        <v>9</v>
+      </c>
+      <c r="F472">
+        <v>3.79</v>
+      </c>
+      <c r="G472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A473" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B473" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C473" t="s">
+        <v>7</v>
+      </c>
+      <c r="D473" t="s">
+        <v>8</v>
+      </c>
+      <c r="E473" t="s">
+        <v>9</v>
+      </c>
+      <c r="F473">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="G473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B474" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C474" t="s">
+        <v>10</v>
+      </c>
+      <c r="D474" t="s">
+        <v>8</v>
+      </c>
+      <c r="E474" t="s">
+        <v>9</v>
+      </c>
+      <c r="F474">
+        <v>3.71</v>
+      </c>
+      <c r="G474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A475" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B475" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C475" t="s">
+        <v>7</v>
+      </c>
+      <c r="D475" t="s">
+        <v>8</v>
+      </c>
+      <c r="E475" t="s">
+        <v>9</v>
+      </c>
+      <c r="F475">
+        <v>11.02</v>
+      </c>
+      <c r="G475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A476" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B476" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C476" t="s">
+        <v>10</v>
+      </c>
+      <c r="D476" t="s">
+        <v>8</v>
+      </c>
+      <c r="E476" t="s">
+        <v>9</v>
+      </c>
+      <c r="F476">
+        <v>11.4</v>
+      </c>
+      <c r="G476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B477" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C477" t="s">
+        <v>7</v>
+      </c>
+      <c r="D477" t="s">
+        <v>8</v>
+      </c>
+      <c r="E477" t="s">
+        <v>9</v>
+      </c>
+      <c r="F477">
+        <v>4.42</v>
+      </c>
+      <c r="G477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A478" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B478" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C478" t="s">
+        <v>10</v>
+      </c>
+      <c r="D478" t="s">
+        <v>8</v>
+      </c>
+      <c r="E478" t="s">
+        <v>9</v>
+      </c>
+      <c r="F478">
+        <v>3.32</v>
+      </c>
+      <c r="G478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A479" s="1">
+        <v>43591</v>
+      </c>
+      <c r="B479" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C479" t="s">
+        <v>7</v>
+      </c>
+      <c r="D479" t="s">
+        <v>8</v>
+      </c>
+      <c r="E479" t="s">
+        <v>9</v>
+      </c>
+      <c r="F479">
+        <v>21.28</v>
+      </c>
+      <c r="G479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A480" s="1">
+        <v>43591</v>
+      </c>
+      <c r="B480" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C480" t="s">
+        <v>10</v>
+      </c>
+      <c r="D480" t="s">
+        <v>8</v>
+      </c>
+      <c r="E480" t="s">
+        <v>9</v>
+      </c>
+      <c r="F480">
+        <v>20.04</v>
+      </c>
+      <c r="G480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A481" s="1">
+        <v>43592</v>
+      </c>
+      <c r="B481" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C481" t="s">
+        <v>10</v>
+      </c>
+      <c r="D481" t="s">
+        <v>8</v>
+      </c>
+      <c r="E481" t="s">
+        <v>9</v>
+      </c>
+      <c r="F481">
+        <v>3.36</v>
+      </c>
+      <c r="G481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <v>43592</v>
+      </c>
+      <c r="B482" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C482" t="s">
+        <v>7</v>
+      </c>
+      <c r="D482" t="s">
+        <v>8</v>
+      </c>
+      <c r="E482" t="s">
+        <v>9</v>
+      </c>
+      <c r="F482">
+        <v>3.53</v>
+      </c>
+      <c r="G482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>43593</v>
+      </c>
+      <c r="B483" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C483" t="s">
+        <v>10</v>
+      </c>
+      <c r="D483" t="s">
+        <v>8</v>
+      </c>
+      <c r="E483" t="s">
+        <v>9</v>
+      </c>
+      <c r="F483">
+        <v>3.25</v>
+      </c>
+      <c r="G483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>43593</v>
+      </c>
+      <c r="B484" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C484" t="s">
+        <v>7</v>
+      </c>
+      <c r="D484" t="s">
+        <v>8</v>
+      </c>
+      <c r="E484" t="s">
+        <v>9</v>
+      </c>
+      <c r="F484">
+        <v>3.51</v>
+      </c>
+      <c r="G484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>43594</v>
+      </c>
+      <c r="B485" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C485" t="s">
+        <v>10</v>
+      </c>
+      <c r="D485" t="s">
+        <v>8</v>
+      </c>
+      <c r="E485" t="s">
+        <v>9</v>
+      </c>
+      <c r="F485">
+        <v>3.25</v>
+      </c>
+      <c r="G485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>43594</v>
+      </c>
+      <c r="B486" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C486" t="s">
+        <v>10</v>
+      </c>
+      <c r="D486" t="s">
+        <v>8</v>
+      </c>
+      <c r="E486" t="s">
+        <v>9</v>
+      </c>
+      <c r="F486">
+        <v>0.21</v>
+      </c>
+      <c r="G486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>43594</v>
+      </c>
+      <c r="B487" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C487" t="s">
+        <v>7</v>
+      </c>
+      <c r="D487" t="s">
+        <v>8</v>
+      </c>
+      <c r="E487" t="s">
+        <v>9</v>
+      </c>
+      <c r="F487">
+        <v>3.88</v>
+      </c>
+      <c r="G487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>43595</v>
+      </c>
+      <c r="B488" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C488" t="s">
+        <v>7</v>
+      </c>
+      <c r="D488" t="s">
+        <v>8</v>
+      </c>
+      <c r="E488" t="s">
+        <v>9</v>
+      </c>
+      <c r="F488">
+        <v>3.82</v>
+      </c>
+      <c r="G488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <v>43595</v>
+      </c>
+      <c r="B489" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C489" t="s">
+        <v>10</v>
+      </c>
+      <c r="D489" t="s">
+        <v>8</v>
+      </c>
+      <c r="E489" t="s">
+        <v>9</v>
+      </c>
+      <c r="F489">
+        <v>3.23</v>
+      </c>
+      <c r="G489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>43595</v>
+      </c>
+      <c r="B490" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C490" t="s">
+        <v>10</v>
+      </c>
+      <c r="D490" t="s">
+        <v>8</v>
+      </c>
+      <c r="E490" t="s">
+        <v>9</v>
+      </c>
+      <c r="F490">
+        <v>0.21</v>
+      </c>
+      <c r="G490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>43598</v>
+      </c>
+      <c r="B491" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C491" t="s">
+        <v>7</v>
+      </c>
+      <c r="D491" t="s">
+        <v>8</v>
+      </c>
+      <c r="E491" t="s">
+        <v>9</v>
+      </c>
+      <c r="F491">
+        <v>10.81</v>
+      </c>
+      <c r="G491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>43598</v>
+      </c>
+      <c r="B492" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C492" t="s">
+        <v>10</v>
+      </c>
+      <c r="D492" t="s">
+        <v>8</v>
+      </c>
+      <c r="E492" t="s">
+        <v>9</v>
+      </c>
+      <c r="F492">
+        <v>9.65</v>
+      </c>
+      <c r="G492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <v>43598</v>
+      </c>
+      <c r="B493" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C493" t="s">
+        <v>10</v>
+      </c>
+      <c r="D493" t="s">
+        <v>8</v>
+      </c>
+      <c r="E493" t="s">
+        <v>9</v>
+      </c>
+      <c r="F493">
+        <v>0.61</v>
+      </c>
+      <c r="G493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A494" s="1">
+        <v>43599</v>
+      </c>
+      <c r="B494" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C494" t="s">
+        <v>10</v>
+      </c>
+      <c r="D494" t="s">
+        <v>8</v>
+      </c>
+      <c r="E494" t="s">
+        <v>9</v>
+      </c>
+      <c r="F494">
+        <v>3.23</v>
+      </c>
+      <c r="G494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <v>43599</v>
+      </c>
+      <c r="B495" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C495" t="s">
+        <v>10</v>
+      </c>
+      <c r="D495" t="s">
+        <v>8</v>
+      </c>
+      <c r="E495" t="s">
+        <v>9</v>
+      </c>
+      <c r="F495">
+        <v>0.21</v>
+      </c>
+      <c r="G495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
+        <v>43599</v>
+      </c>
+      <c r="B496" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C496" t="s">
+        <v>7</v>
+      </c>
+      <c r="D496" t="s">
+        <v>8</v>
+      </c>
+      <c r="E496" t="s">
+        <v>9</v>
+      </c>
+      <c r="F496">
+        <v>3.72</v>
+      </c>
+      <c r="G496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A497" s="1">
+        <v>43600</v>
+      </c>
+      <c r="B497" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C497" t="s">
+        <v>7</v>
+      </c>
+      <c r="D497" t="s">
+        <v>8</v>
+      </c>
+      <c r="E497" t="s">
+        <v>9</v>
+      </c>
+      <c r="F497">
+        <v>3.72</v>
+      </c>
+      <c r="G497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>43600</v>
+      </c>
+      <c r="B498" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C498" t="s">
+        <v>10</v>
+      </c>
+      <c r="D498" t="s">
+        <v>8</v>
+      </c>
+      <c r="E498" t="s">
+        <v>9</v>
+      </c>
+      <c r="F498">
+        <v>3.23</v>
+      </c>
+      <c r="G498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>43600</v>
+      </c>
+      <c r="B499" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C499" t="s">
+        <v>10</v>
+      </c>
+      <c r="D499" t="s">
+        <v>8</v>
+      </c>
+      <c r="E499" t="s">
+        <v>9</v>
+      </c>
+      <c r="F499">
+        <v>0.2</v>
+      </c>
+      <c r="G499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>43601</v>
+      </c>
+      <c r="B500" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C500" t="s">
+        <v>7</v>
+      </c>
+      <c r="D500" t="s">
+        <v>8</v>
+      </c>
+      <c r="E500" t="s">
+        <v>9</v>
+      </c>
+      <c r="F500">
+        <v>3.52</v>
+      </c>
+      <c r="G500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>43601</v>
+      </c>
+      <c r="B501" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C501" t="s">
+        <v>10</v>
+      </c>
+      <c r="D501" t="s">
+        <v>8</v>
+      </c>
+      <c r="E501" t="s">
+        <v>9</v>
+      </c>
+      <c r="F501">
+        <v>3.23</v>
+      </c>
+      <c r="G501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>43601</v>
+      </c>
+      <c r="B502" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C502" t="s">
+        <v>10</v>
+      </c>
+      <c r="D502" t="s">
+        <v>8</v>
+      </c>
+      <c r="E502" t="s">
+        <v>9</v>
+      </c>
+      <c r="F502">
+        <v>0.2</v>
+      </c>
+      <c r="G502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>43602</v>
+      </c>
+      <c r="B503" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C503" t="s">
+        <v>7</v>
+      </c>
+      <c r="D503" t="s">
+        <v>8</v>
+      </c>
+      <c r="E503" t="s">
+        <v>9</v>
+      </c>
+      <c r="F503">
+        <v>3.72</v>
+      </c>
+      <c r="G503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>43602</v>
+      </c>
+      <c r="B504" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C504" t="s">
+        <v>10</v>
+      </c>
+      <c r="D504" t="s">
+        <v>8</v>
+      </c>
+      <c r="E504" t="s">
+        <v>9</v>
+      </c>
+      <c r="F504">
+        <v>3.51</v>
+      </c>
+      <c r="G504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>43602</v>
+      </c>
+      <c r="B505" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C505" t="s">
+        <v>10</v>
+      </c>
+      <c r="D505" t="s">
+        <v>8</v>
+      </c>
+      <c r="E505" t="s">
+        <v>9</v>
+      </c>
+      <c r="F505">
+        <v>0.2</v>
+      </c>
+      <c r="G505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>43605</v>
+      </c>
+      <c r="B506" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C506" t="s">
+        <v>7</v>
+      </c>
+      <c r="D506" t="s">
+        <v>8</v>
+      </c>
+      <c r="E506" t="s">
+        <v>9</v>
+      </c>
+      <c r="F506">
+        <v>10.47</v>
+      </c>
+      <c r="G506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>43605</v>
+      </c>
+      <c r="B507" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C507" t="s">
+        <v>10</v>
+      </c>
+      <c r="D507" t="s">
+        <v>8</v>
+      </c>
+      <c r="E507" t="s">
+        <v>9</v>
+      </c>
+      <c r="F507">
+        <v>10.49</v>
+      </c>
+      <c r="G507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <v>43605</v>
+      </c>
+      <c r="B508" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C508" t="s">
+        <v>10</v>
+      </c>
+      <c r="D508" t="s">
+        <v>8</v>
+      </c>
+      <c r="E508" t="s">
+        <v>9</v>
+      </c>
+      <c r="F508">
+        <v>0.61</v>
+      </c>
+      <c r="G508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <v>43606</v>
+      </c>
+      <c r="B509" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C509" t="s">
+        <v>7</v>
+      </c>
+      <c r="D509" t="s">
+        <v>8</v>
+      </c>
+      <c r="E509" t="s">
+        <v>9</v>
+      </c>
+      <c r="F509">
+        <v>3.81</v>
+      </c>
+      <c r="G509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <v>43606</v>
+      </c>
+      <c r="B510" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C510" t="s">
+        <v>10</v>
+      </c>
+      <c r="D510" t="s">
+        <v>8</v>
+      </c>
+      <c r="E510" t="s">
+        <v>9</v>
+      </c>
+      <c r="F510">
+        <v>3.52</v>
+      </c>
+      <c r="G510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <v>43606</v>
+      </c>
+      <c r="B511" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C511" t="s">
+        <v>10</v>
+      </c>
+      <c r="D511" t="s">
+        <v>8</v>
+      </c>
+      <c r="E511" t="s">
+        <v>9</v>
+      </c>
+      <c r="F511">
+        <v>0.2</v>
+      </c>
+      <c r="G511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>43607</v>
+      </c>
+      <c r="B512" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C512" t="s">
+        <v>7</v>
+      </c>
+      <c r="D512" t="s">
+        <v>8</v>
+      </c>
+      <c r="E512" t="s">
+        <v>9</v>
+      </c>
+      <c r="F512">
+        <v>3.54</v>
+      </c>
+      <c r="G512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>43607</v>
+      </c>
+      <c r="B513" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C513" t="s">
+        <v>10</v>
+      </c>
+      <c r="D513" t="s">
+        <v>8</v>
+      </c>
+      <c r="E513" t="s">
+        <v>9</v>
+      </c>
+      <c r="F513">
+        <v>3.54</v>
+      </c>
+      <c r="G513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>43607</v>
+      </c>
+      <c r="B514" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C514" t="s">
+        <v>10</v>
+      </c>
+      <c r="D514" t="s">
+        <v>8</v>
+      </c>
+      <c r="E514" t="s">
+        <v>9</v>
+      </c>
+      <c r="F514">
+        <v>0.21</v>
+      </c>
+      <c r="G514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>43608</v>
+      </c>
+      <c r="B515" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C515" t="s">
+        <v>7</v>
+      </c>
+      <c r="D515" t="s">
+        <v>8</v>
+      </c>
+      <c r="E515" t="s">
+        <v>9</v>
+      </c>
+      <c r="F515">
+        <v>3.47</v>
+      </c>
+      <c r="G515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>43608</v>
+      </c>
+      <c r="B516" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C516" t="s">
+        <v>10</v>
+      </c>
+      <c r="D516" t="s">
+        <v>8</v>
+      </c>
+      <c r="E516" t="s">
+        <v>9</v>
+      </c>
+      <c r="F516">
+        <v>3.55</v>
+      </c>
+      <c r="G516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>43608</v>
+      </c>
+      <c r="B517" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C517" t="s">
+        <v>10</v>
+      </c>
+      <c r="D517" t="s">
+        <v>8</v>
+      </c>
+      <c r="E517" t="s">
+        <v>9</v>
+      </c>
+      <c r="F517">
+        <v>0.21</v>
+      </c>
+      <c r="G517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>43609</v>
+      </c>
+      <c r="B518" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C518" t="s">
+        <v>10</v>
+      </c>
+      <c r="D518" t="s">
+        <v>8</v>
+      </c>
+      <c r="E518" t="s">
+        <v>9</v>
+      </c>
+      <c r="F518">
+        <v>3.56</v>
+      </c>
+      <c r="G518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>43609</v>
+      </c>
+      <c r="B519" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C519" t="s">
+        <v>10</v>
+      </c>
+      <c r="D519" t="s">
+        <v>8</v>
+      </c>
+      <c r="E519" t="s">
+        <v>9</v>
+      </c>
+      <c r="F519">
+        <v>0.21</v>
+      </c>
+      <c r="G519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>43609</v>
+      </c>
+      <c r="B520" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C520" t="s">
+        <v>7</v>
+      </c>
+      <c r="D520" t="s">
+        <v>8</v>
+      </c>
+      <c r="E520" t="s">
+        <v>9</v>
+      </c>
+      <c r="F520">
+        <v>3.64</v>
+      </c>
+      <c r="G520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>43612</v>
+      </c>
+      <c r="B521" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C521" t="s">
+        <v>7</v>
+      </c>
+      <c r="D521" t="s">
+        <v>8</v>
+      </c>
+      <c r="E521" t="s">
+        <v>9</v>
+      </c>
+      <c r="F521">
+        <v>10.47</v>
+      </c>
+      <c r="G521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>43612</v>
+      </c>
+      <c r="B522" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C522" t="s">
+        <v>10</v>
+      </c>
+      <c r="D522" t="s">
+        <v>8</v>
+      </c>
+      <c r="E522" t="s">
+        <v>9</v>
+      </c>
+      <c r="F522">
+        <v>10.72</v>
+      </c>
+      <c r="G522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>43612</v>
+      </c>
+      <c r="B523" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C523" t="s">
+        <v>10</v>
+      </c>
+      <c r="D523" t="s">
+        <v>8</v>
+      </c>
+      <c r="E523" t="s">
+        <v>9</v>
+      </c>
+      <c r="F523">
+        <v>0.62</v>
+      </c>
+      <c r="G523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>43613</v>
+      </c>
+      <c r="B524" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C524" t="s">
+        <v>7</v>
+      </c>
+      <c r="D524" t="s">
+        <v>8</v>
+      </c>
+      <c r="E524" t="s">
+        <v>9</v>
+      </c>
+      <c r="F524">
+        <v>3.67</v>
+      </c>
+      <c r="G524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>43613</v>
+      </c>
+      <c r="B525" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C525" t="s">
+        <v>10</v>
+      </c>
+      <c r="D525" t="s">
+        <v>8</v>
+      </c>
+      <c r="E525" t="s">
+        <v>9</v>
+      </c>
+      <c r="F525">
+        <v>3.56</v>
+      </c>
+      <c r="G525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A526" s="1">
+        <v>43613</v>
+      </c>
+      <c r="B526" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C526" t="s">
+        <v>10</v>
+      </c>
+      <c r="D526" t="s">
+        <v>8</v>
+      </c>
+      <c r="E526" t="s">
+        <v>9</v>
+      </c>
+      <c r="F526">
+        <v>0.21</v>
+      </c>
+      <c r="G526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <v>43614</v>
+      </c>
+      <c r="B527" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C527" t="s">
+        <v>7</v>
+      </c>
+      <c r="D527" t="s">
+        <v>8</v>
+      </c>
+      <c r="E527" t="s">
+        <v>9</v>
+      </c>
+      <c r="F527">
+        <v>3.73</v>
+      </c>
+      <c r="G527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A528" s="1">
+        <v>43614</v>
+      </c>
+      <c r="B528" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C528" t="s">
+        <v>10</v>
+      </c>
+      <c r="D528" t="s">
+        <v>8</v>
+      </c>
+      <c r="E528" t="s">
+        <v>9</v>
+      </c>
+      <c r="F528">
+        <v>3.62</v>
+      </c>
+      <c r="G528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
+        <v>43614</v>
+      </c>
+      <c r="B529" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C529" t="s">
+        <v>10</v>
+      </c>
+      <c r="D529" t="s">
+        <v>8</v>
+      </c>
+      <c r="E529" t="s">
+        <v>9</v>
+      </c>
+      <c r="F529">
+        <v>0.21</v>
+      </c>
+      <c r="G529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A530" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B530" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C530" t="s">
+        <v>10</v>
+      </c>
+      <c r="D530" t="s">
+        <v>8</v>
+      </c>
+      <c r="E530" t="s">
+        <v>9</v>
+      </c>
+      <c r="F530">
+        <v>3.62</v>
+      </c>
+      <c r="G530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B531" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C531" t="s">
+        <v>10</v>
+      </c>
+      <c r="D531" t="s">
+        <v>8</v>
+      </c>
+      <c r="E531" t="s">
+        <v>9</v>
+      </c>
+      <c r="F531">
+        <v>0.21</v>
+      </c>
+      <c r="G531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A532" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B532" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C532" t="s">
+        <v>7</v>
+      </c>
+      <c r="D532" t="s">
+        <v>8</v>
+      </c>
+      <c r="E532" t="s">
+        <v>9</v>
+      </c>
+      <c r="F532">
+        <v>3.5</v>
+      </c>
+      <c r="G532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A533" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B533" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C533" t="s">
+        <v>10</v>
+      </c>
+      <c r="D533" t="s">
+        <v>8</v>
+      </c>
+      <c r="E533" t="s">
+        <v>9</v>
+      </c>
+      <c r="F533">
+        <v>3.64</v>
+      </c>
+      <c r="G533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A534" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B534" s="9">
+        <v>3474</v>
+      </c>
+      <c r="C534" t="s">
+        <v>10</v>
+      </c>
+      <c r="D534" t="s">
+        <v>8</v>
+      </c>
+      <c r="E534" t="s">
+        <v>9</v>
+      </c>
+      <c r="F534">
+        <v>0.21</v>
+      </c>
+      <c r="G534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B535" s="9">
+        <v>1666</v>
+      </c>
+      <c r="C535" t="s">
+        <v>7</v>
+      </c>
+      <c r="D535" t="s">
+        <v>8</v>
+      </c>
+      <c r="E535" t="s">
+        <v>9</v>
+      </c>
+      <c r="F535">
+        <v>3.68</v>
+      </c>
+      <c r="G535">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:G451">
-    <sortCondition ref="A1"/>
+  <sortState ref="A479:G535">
+    <sortCondition ref="A479"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Portfolio/天天基金对账单记录.xlsx
+++ b/Portfolio/天天基金对账单记录.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C97A2F4-C065-4BD2-BBCB-ED3CC86D48FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A26784E-D2B0-41A0-BC31-582F4425D80C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1710" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="账户净资产" sheetId="4" r:id="rId1"/>
@@ -17,8 +17,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="16" r:id="rId4"/>
+    <pivotCache cacheId="18" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="85">
   <si>
     <t>确认日期</t>
   </si>
@@ -322,6 +322,15 @@
   <si>
     <t>求和项:红利再投份额</t>
   </si>
+  <si>
+    <t>广发中证传媒ETF联接A</t>
+  </si>
+  <si>
+    <t>份额调整-调减</t>
+  </si>
+  <si>
+    <t>工商银行 | 4358</t>
+  </si>
 </sst>
 </file>
 
@@ -451,13 +460,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作者" refreshedDate="43567.362801736112" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="193" xr:uid="{2C1FC49F-1B41-49C8-9DCC-1C948FB1932A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作者" refreshedDate="43646.871185763892" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="211" xr:uid="{85476E28-B38C-48BA-BAA6-A4F68D46C42D}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K194" sheet="账户操作"/>
+    <worksheetSource ref="A1:K212" sheet="账户操作"/>
   </cacheSource>
   <cacheFields count="13">
     <cacheField name="确认日期" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-09-20T00:00:00" maxDate="2019-04-09T00:00:00" count="71">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-09-20T00:00:00" maxDate="2019-06-22T00:00:00" count="79">
         <d v="2016-09-20T00:00:00"/>
         <d v="2017-01-16T00:00:00"/>
         <d v="2017-01-17T00:00:00"/>
@@ -529,9 +538,17 @@
         <d v="2019-03-29T00:00:00"/>
         <d v="2019-04-01T00:00:00"/>
         <d v="2019-04-08T00:00:00"/>
+        <d v="2019-04-29T00:00:00"/>
+        <d v="2019-05-08T00:00:00"/>
+        <d v="2019-05-16T00:00:00"/>
+        <d v="2019-05-20T00:00:00"/>
+        <d v="2019-05-31T00:00:00"/>
+        <d v="2019-06-03T00:00:00"/>
+        <d v="2019-06-19T00:00:00"/>
+        <d v="2019-06-21T00:00:00"/>
       </sharedItems>
       <fieldGroup par="12" base="0">
-        <rangePr groupBy="months" startDate="2016-09-20T00:00:00" endDate="2019-04-09T00:00:00"/>
+        <rangePr groupBy="months" startDate="2016-09-20T00:00:00" endDate="2019-06-22T00:00:00"/>
         <groupItems count="14">
           <s v="&lt;2016/9/20"/>
           <s v="1月"/>
@@ -546,11 +563,11 @@
           <s v="10月"/>
           <s v="11月"/>
           <s v="12月"/>
-          <s v="&gt;2019/4/9"/>
+          <s v="&gt;2019/6/22"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="基金代码" numFmtId="177">
+    <cacheField name="基金代码" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="71" maxValue="519977"/>
     </cacheField>
     <cacheField name="基金简称" numFmtId="0">
@@ -562,47 +579,47 @@
     <cacheField name="确认状态" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="确认份额" numFmtId="2">
+    <cacheField name="确认份额" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="100000"/>
     </cacheField>
-    <cacheField name="确认金额" numFmtId="2">
+    <cacheField name="确认金额" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4210.55" maxValue="100000"/>
     </cacheField>
-    <cacheField name="手续费" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="29.96"/>
+    <cacheField name="手续费" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="49.95"/>
     </cacheField>
-    <cacheField name="确认净值" numFmtId="176">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1.7130000000000001"/>
+    <cacheField name="确认净值" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="2.6779999999999999"/>
     </cacheField>
     <cacheField name="关联银行卡" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="净流入" numFmtId="0">
+    <cacheField name="净流入" numFmtId="2">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-100000" maxValue="89557.08"/>
     </cacheField>
     <cacheField name="季度" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="quarters" startDate="2016-09-20T00:00:00" endDate="2019-04-09T00:00:00"/>
+        <rangePr groupBy="quarters" startDate="2016-09-20T00:00:00" endDate="2019-06-22T00:00:00"/>
         <groupItems count="6">
           <s v="&lt;2016/9/20"/>
           <s v="第一季"/>
           <s v="第二季"/>
           <s v="第三季"/>
           <s v="第四季"/>
-          <s v="&gt;2019/4/9"/>
+          <s v="&gt;2019/6/22"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="年" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="years" startDate="2016-09-20T00:00:00" endDate="2019-04-09T00:00:00"/>
+        <rangePr groupBy="years" startDate="2016-09-20T00:00:00" endDate="2019-06-22T00:00:00"/>
         <groupItems count="6">
           <s v="&lt;2016/9/20"/>
           <s v="2016年"/>
           <s v="2017年"/>
           <s v="2018年"/>
           <s v="2019年"/>
-          <s v="&gt;2019/4/9"/>
+          <s v="&gt;2019/6/22"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -616,13 +633,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作者" refreshedDate="43625.478567013888" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="534" xr:uid="{1BD5F059-C7AE-4EE0-B1AB-F256C2BC891F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作者" refreshedDate="43646.873129629632" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="592" xr:uid="{CD2B0CAF-AC3A-4D12-B646-1AB299CD5395}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G535" sheet="分红信息"/>
+    <worksheetSource ref="A1:G593" sheet="分红信息"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="确认日期" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-01-19T00:00:00" maxDate="2019-06-01T00:00:00" count="219">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-01-19T00:00:00" maxDate="2019-06-29T00:00:00" count="238">
         <d v="2018-01-19T00:00:00"/>
         <d v="2018-07-02T00:00:00"/>
         <d v="2018-07-10T00:00:00"/>
@@ -842,9 +859,28 @@
         <d v="2019-05-29T00:00:00"/>
         <d v="2019-05-30T00:00:00"/>
         <d v="2019-05-31T00:00:00"/>
+        <d v="2019-06-03T00:00:00"/>
+        <d v="2019-06-04T00:00:00"/>
+        <d v="2019-06-05T00:00:00"/>
+        <d v="2019-06-06T00:00:00"/>
+        <d v="2019-06-10T00:00:00"/>
+        <d v="2019-06-11T00:00:00"/>
+        <d v="2019-06-12T00:00:00"/>
+        <d v="2019-06-13T00:00:00"/>
+        <d v="2019-06-14T00:00:00"/>
+        <d v="2019-06-17T00:00:00"/>
+        <d v="2019-06-18T00:00:00"/>
+        <d v="2019-06-19T00:00:00"/>
+        <d v="2019-06-20T00:00:00"/>
+        <d v="2019-06-21T00:00:00"/>
+        <d v="2019-06-24T00:00:00"/>
+        <d v="2019-06-25T00:00:00"/>
+        <d v="2019-06-26T00:00:00"/>
+        <d v="2019-06-27T00:00:00"/>
+        <d v="2019-06-28T00:00:00"/>
       </sharedItems>
       <fieldGroup par="8" base="0">
-        <rangePr groupBy="months" startDate="2018-01-19T00:00:00" endDate="2019-06-01T00:00:00"/>
+        <rangePr groupBy="months" startDate="2018-01-19T00:00:00" endDate="2019-06-29T00:00:00"/>
         <groupItems count="14">
           <s v="&lt;2018/1/19"/>
           <s v="1月"/>
@@ -859,12 +895,12 @@
           <s v="10月"/>
           <s v="11月"/>
           <s v="12月"/>
-          <s v="&gt;2019/6/1"/>
+          <s v="&gt;2019/6/29"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="基金代码" numFmtId="177">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="588" maxValue="161017"/>
+    <cacheField name="基金代码" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="588" maxValue="340001"/>
     </cacheField>
     <cacheField name="基金简称" numFmtId="0">
       <sharedItems/>
@@ -876,32 +912,32 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="红利再投份额" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.2" maxValue="1085.17"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.15" maxValue="1085.17"/>
     </cacheField>
     <cacheField name="确认净值" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" minValue="1" maxValue="1.649"/>
     </cacheField>
     <cacheField name="季度" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="quarters" startDate="2018-01-19T00:00:00" endDate="2019-06-01T00:00:00"/>
+        <rangePr groupBy="quarters" startDate="2018-01-19T00:00:00" endDate="2019-06-29T00:00:00"/>
         <groupItems count="6">
           <s v="&lt;2018/1/19"/>
           <s v="第一季"/>
           <s v="第二季"/>
           <s v="第三季"/>
           <s v="第四季"/>
-          <s v="&gt;2019/6/1"/>
+          <s v="&gt;2019/6/29"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="年" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="years" startDate="2018-01-19T00:00:00" endDate="2019-06-01T00:00:00"/>
+        <rangePr groupBy="years" startDate="2018-01-19T00:00:00" endDate="2019-06-29T00:00:00"/>
         <groupItems count="4">
           <s v="&lt;2018/1/19"/>
           <s v="2018年"/>
           <s v="2019年"/>
-          <s v="&gt;2019/6/1"/>
+          <s v="&gt;2019/6/29"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -915,7 +951,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="193">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="211">
   <r>
     <x v="0"/>
     <n v="614"/>
@@ -3425,11 +3461,245 @@
     <s v="--"/>
     <n v="0"/>
   </r>
+  <r>
+    <x v="71"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="活期宝转入—赎回"/>
+    <s v="成功"/>
+    <n v="6400"/>
+    <n v="6400"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="招商银行 | 6292"/>
+    <n v="-6400"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <n v="4752"/>
+    <s v="广发中证传媒ETF联接A"/>
+    <s v="买基金"/>
+    <s v="成功"/>
+    <n v="7852.99"/>
+    <n v="6400"/>
+    <n v="7.67"/>
+    <n v="0.81399999999999995"/>
+    <s v="招商银行 | 6292"/>
+    <n v="6400"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="活期宝充值"/>
+    <s v="成功"/>
+    <n v="2608.96"/>
+    <n v="2608.96"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="工商银行 | 4358"/>
+    <n v="2608.96"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <n v="110022"/>
+    <s v="易方达消费行业"/>
+    <s v="卖基金极速回活期宝"/>
+    <s v="成功"/>
+    <n v="3730.54"/>
+    <n v="9940.44"/>
+    <n v="49.95"/>
+    <n v="2.6779999999999999"/>
+    <s v="招商银行 | 6292"/>
+    <n v="-9940.44"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="卖基金充值"/>
+    <s v="成功"/>
+    <n v="10016.5"/>
+    <n v="10016.5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="招商银行 | 6292"/>
+    <n v="-10016.5"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="活期宝转入—赎回"/>
+    <s v="成功"/>
+    <n v="6400"/>
+    <n v="6400"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="招商银行 | 6292"/>
+    <n v="-6400"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <n v="110027"/>
+    <s v="易方达安心回报债券A"/>
+    <s v="买基金"/>
+    <s v="成功"/>
+    <n v="3942.59"/>
+    <n v="6400"/>
+    <n v="5.12"/>
+    <n v="1.6220000000000001"/>
+    <s v="招商银行 | 6292"/>
+    <n v="6400"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="份额调整-调减"/>
+    <s v="成功"/>
+    <n v="76.06"/>
+    <n v="76.06"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="招商银行 | 6292"/>
+    <n v="76.06"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="活期宝转入—赎回"/>
+    <s v="成功"/>
+    <n v="6400"/>
+    <n v="6400"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="招商银行 | 6292"/>
+    <n v="-6400"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="活期宝转入—赎回"/>
+    <s v="成功"/>
+    <n v="6400"/>
+    <n v="6400"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="招商银行 | 6292"/>
+    <n v="-6400"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <n v="110027"/>
+    <s v="易方达安心回报债券A"/>
+    <s v="买基金"/>
+    <s v="成功"/>
+    <n v="4011.84"/>
+    <n v="6400"/>
+    <n v="5.12"/>
+    <n v="1.5940000000000001"/>
+    <s v="招商银行 | 6292"/>
+    <n v="6400"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <n v="164906"/>
+    <s v="交银中证海外中国互联网指数"/>
+    <s v="买基金"/>
+    <s v="成功"/>
+    <n v="5738.18"/>
+    <n v="6400"/>
+    <n v="7.67"/>
+    <n v="1.1140000000000001"/>
+    <s v="招商银行 | 6292"/>
+    <n v="6400"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="快速取现"/>
+    <s v="成功"/>
+    <n v="3600"/>
+    <n v="3600"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="招商银行 | 6292"/>
+    <n v="-3600"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="快速取现"/>
+    <s v="成功"/>
+    <n v="2800"/>
+    <n v="2800"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="招商银行 | 6292"/>
+    <n v="-2800"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="活期宝转入—赎回"/>
+    <s v="成功"/>
+    <n v="6400"/>
+    <n v="6400"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="招商银行 | 6292"/>
+    <n v="-6400"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <n v="110027"/>
+    <s v="易方达安心回报债券A"/>
+    <s v="买基金"/>
+    <s v="成功"/>
+    <n v="4042.28"/>
+    <n v="6400"/>
+    <n v="5.12"/>
+    <n v="1.5820000000000001"/>
+    <s v="招商银行 | 6292"/>
+    <n v="6400"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="快速取现"/>
+    <s v="成功"/>
+    <n v="6400"/>
+    <n v="6400"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="招商银行 | 6292"/>
+    <n v="-6400"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <n v="4752"/>
+    <s v="广发中证传媒ETF联接A"/>
+    <s v="修改分红方式"/>
+    <s v="成功"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <s v="--"/>
+    <n v="0"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="534">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="592">
   <r>
     <x v="0"/>
     <n v="100032"/>
@@ -8234,14 +8504,536 @@
     <s v="红利再投资"/>
     <s v="--"/>
     <n v="3.68"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="219"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="10.57"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="219"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="7.69"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="219"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.63"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="220"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.53"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="220"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="2.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="220"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="221"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="2.54"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="221"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="221"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.79"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="222"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.5"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="222"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="2.5499999999999998"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="222"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="223"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="10.07"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="223"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.82"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="223"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="13.81"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="224"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.22"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="224"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="2.72"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="224"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.48"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="225"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="2.56"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="225"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="225"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="226"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="2.59"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="226"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="226"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.65"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="227"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.72"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="227"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="2.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="227"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="228"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="7.77"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="228"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.63"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="228"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="11.74"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="229"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="4.22"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="229"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="2.61"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="229"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="230"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="1.87"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="230"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.15"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="230"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.79"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="231"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="1.29"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="231"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="231"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.86"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="232"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.74"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="232"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="1.29"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="232"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="233"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="11.06"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="233"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.8"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="233"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.64"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="233"/>
+    <n v="340001"/>
+    <s v="兴全可转债混合"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="617.75"/>
+    <n v="1.0793999999999999"/>
+  </r>
+  <r>
+    <x v="234"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="1.28"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="234"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="234"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.69"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="235"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.75"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="235"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="1.28"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="235"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="236"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.71"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="236"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="1.27"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="236"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="237"/>
+    <n v="1666"/>
+    <s v="鹏华添利宝货币"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="3.55"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="237"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="1.28"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="237"/>
+    <n v="3474"/>
+    <s v="南方天天利货币Ｂ"/>
+    <s v="红利再投资"/>
+    <s v="--"/>
+    <n v="0.21"/>
     <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB0D7E55-2375-4A56-B10A-44DE88D8D7F5}" name="数据透视表6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M2:O26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69F28248-4F7D-4DE8-9BD7-B60328350AF2}" name="数据透视表6" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M2:O13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
       <items count="15">
@@ -8286,9 +9078,9 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
         <item sd="0" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
         <item x="4"/>
         <item sd="0" x="5"/>
         <item t="default"/>
@@ -8299,60 +9091,15 @@
     <field x="12"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="24">
+  <rowItems count="11">
     <i>
       <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
     </i>
     <i>
       <x v="2"/>
     </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
     <i>
       <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
     </i>
     <i>
       <x v="4"/>
@@ -8368,6 +9115,12 @@
     </i>
     <i r="1">
       <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -8401,8 +9154,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7262F558-418B-4C0E-B258-21AD1618815F}" name="数据透视表1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I2:J17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D308D02-CE7B-4112-B8D8-E5450495ED71}" name="数据透视表1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I2:J18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
       <items count="15">
@@ -8436,7 +9189,7 @@
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
         <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8445,7 +9198,7 @@
         <item sd="0" x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item sd="0" x="3"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8454,7 +9207,7 @@
     <field x="8"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="16">
     <i>
       <x v="1"/>
     </i>
@@ -8496,6 +9249,9 @@
     </i>
     <i r="1">
       <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -8784,8 +9540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D59B494-3E84-4DBE-A33D-1CFBEA153B0C}">
   <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9542,11 +10298,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O194"/>
+  <dimension ref="A1:O212"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F197" sqref="F197"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9558,7 +10314,7 @@
     <col min="8" max="8" width="7.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9725,14 +10481,14 @@
         <f t="shared" si="0"/>
         <v>3700</v>
       </c>
-      <c r="M4" s="17" t="s">
-        <v>63</v>
+      <c r="M4" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="N4" s="16">
-        <v>3400</v>
+        <v>54920</v>
       </c>
       <c r="O4" s="16">
-        <v>4.08</v>
+        <v>57.129999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -9771,13 +10527,13 @@
         <v>0</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N5" s="16">
-        <v>54920</v>
+        <v>285174.09000000008</v>
       </c>
       <c r="O5" s="16">
-        <v>57.129999999999995</v>
+        <v>347.74999999999977</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -9815,14 +10571,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="17" t="s">
-        <v>65</v>
+      <c r="M6" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="N6" s="16">
-        <v>15320</v>
+        <v>54193.430000000008</v>
       </c>
       <c r="O6" s="16">
-        <v>19.54</v>
+        <v>125.41</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -9861,13 +10617,13 @@
         <v>3960</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N7" s="16">
-        <v>3960</v>
+        <v>29618.05</v>
       </c>
       <c r="O7" s="16">
-        <v>1.98</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -9906,13 +10662,13 @@
         <v>3960</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N8" s="16">
-        <v>15840</v>
+        <v>23600</v>
       </c>
       <c r="O8" s="16">
-        <v>16.23</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -9951,13 +10707,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="N9" s="16">
-        <v>15840</v>
+        <v>18247.300000000003</v>
       </c>
       <c r="O9" s="16">
-        <v>17.399999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -9996,13 +10752,13 @@
         <v>0</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N10" s="16">
-        <v>3960</v>
+        <v>12800</v>
       </c>
       <c r="O10" s="16">
-        <v>1.98</v>
+        <v>24.93</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -10040,14 +10796,14 @@
         <f t="shared" si="0"/>
         <v>3960</v>
       </c>
-      <c r="M11" s="15" t="s">
-        <v>70</v>
+      <c r="M11" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="N11" s="16">
-        <v>285174.08999999997</v>
+        <v>-23671.919999999998</v>
       </c>
       <c r="O11" s="16">
-        <v>347.75</v>
+        <v>60.19</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -10086,13 +10842,13 @@
         <v>0</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N12" s="16">
-        <v>15927.75</v>
+        <v>-6400</v>
       </c>
       <c r="O12" s="16">
-        <v>32</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -10130,14 +10886,14 @@
         <f t="shared" si="0"/>
         <v>3960</v>
       </c>
-      <c r="M13" s="17" t="s">
-        <v>68</v>
+      <c r="M13" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="N13" s="16">
-        <v>25600</v>
+        <v>397687.52000000008</v>
       </c>
       <c r="O13" s="16">
-        <v>20.46</v>
+        <v>534.36999999999966</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -10175,15 +10931,6 @@
         <f t="shared" si="0"/>
         <v>3960</v>
       </c>
-      <c r="M14" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="N14" s="16">
-        <v>39200</v>
-      </c>
-      <c r="O14" s="16">
-        <v>20.45</v>
-      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -10220,15 +10967,6 @@
         <f t="shared" si="0"/>
         <v>3960</v>
       </c>
-      <c r="M15" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="N15" s="16">
-        <v>165223.08000000002</v>
-      </c>
-      <c r="O15" s="16">
-        <v>44.28</v>
-      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -10265,17 +11003,8 @@
         <f t="shared" si="0"/>
         <v>3960</v>
       </c>
-      <c r="M16" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="N16" s="16">
-        <v>-5620.1100000000342</v>
-      </c>
-      <c r="O16" s="16">
-        <v>34.720000000000006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42879</v>
       </c>
@@ -10310,17 +11039,8 @@
         <f t="shared" si="0"/>
         <v>3960</v>
       </c>
-      <c r="M17" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="N17" s="16">
-        <v>153119.49000000002</v>
-      </c>
-      <c r="O17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42879</v>
       </c>
@@ -10355,17 +11075,8 @@
         <f t="shared" si="0"/>
         <v>7920</v>
       </c>
-      <c r="M18" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="N18" s="16">
-        <v>-4700</v>
-      </c>
-      <c r="O18" s="16">
-        <v>110.58000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42879</v>
       </c>
@@ -10400,17 +11111,8 @@
         <f t="shared" si="0"/>
         <v>3960</v>
       </c>
-      <c r="M19" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="N19" s="16">
-        <v>7147.18</v>
-      </c>
-      <c r="O19" s="16">
-        <v>24.93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43055</v>
       </c>
@@ -10445,17 +11147,8 @@
         <f t="shared" si="0"/>
         <v>3960</v>
       </c>
-      <c r="M20" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="N20" s="16">
-        <v>-110723.3</v>
-      </c>
-      <c r="O20" s="16">
-        <v>60.33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43209</v>
       </c>
@@ -10490,17 +11183,8 @@
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="M21" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="N21" s="16">
-        <v>84265.35</v>
-      </c>
-      <c r="O21" s="16">
-        <v>44.76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43217</v>
       </c>
@@ -10535,17 +11219,8 @@
         <f t="shared" si="0"/>
         <v>-4072.25</v>
       </c>
-      <c r="M22" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N22" s="16">
-        <v>29618.05</v>
-      </c>
-      <c r="O22" s="16">
-        <v>14.71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43236</v>
       </c>
@@ -10580,17 +11255,8 @@
         <f t="shared" si="0"/>
         <v>12800</v>
       </c>
-      <c r="M23" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="N23" s="16">
-        <v>23600</v>
-      </c>
-      <c r="O23" s="16">
-        <v>12.79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43237</v>
       </c>
@@ -10625,17 +11291,8 @@
         <f t="shared" si="0"/>
         <v>12800</v>
       </c>
-      <c r="M24" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="N24" s="16">
-        <v>18247.300000000003</v>
-      </c>
-      <c r="O24" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43244</v>
       </c>
@@ -10670,17 +11327,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N25" s="16">
-        <v>12800</v>
-      </c>
-      <c r="O25" s="16">
-        <v>17.259999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43252</v>
       </c>
@@ -10715,17 +11363,8 @@
         <f t="shared" si="0"/>
         <v>6400</v>
       </c>
-      <c r="M26" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="N26" s="16">
-        <v>427759.43999999994</v>
-      </c>
-      <c r="O26" s="16">
-        <v>453.71999999999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43266</v>
       </c>
@@ -10761,7 +11400,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43266</v>
       </c>
@@ -10797,7 +11436,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43271</v>
       </c>
@@ -10833,7 +11472,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43284</v>
       </c>
@@ -10869,7 +11508,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43284</v>
       </c>
@@ -10905,7 +11544,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43286</v>
       </c>
@@ -14501,7 +15140,7 @@
         <v>17</v>
       </c>
       <c r="K131" s="8">
-        <f t="shared" ref="K131:K194" si="2">IF(OR(ISNUMBER(FIND("卖基金",D131)),ISNUMBER(FIND("普通取现",D131)),ISNUMBER(FIND("快速取现",D131)),ISNUMBER(FIND("卖基金极速回活期宝",D131)),ISNUMBER(FIND("买基金取现",D131)),ISNUMBER(FIND("赎回",D131))),-1*G131,1*G131)</f>
+        <f t="shared" ref="K131:K195" si="2">IF(OR(ISNUMBER(FIND("卖基金",D131)),ISNUMBER(FIND("普通取现",D131)),ISNUMBER(FIND("快速取现",D131)),ISNUMBER(FIND("卖基金极速回活期宝",D131)),ISNUMBER(FIND("买基金取现",D131)),ISNUMBER(FIND("赎回",D131))),-1*G131,1*G131)</f>
         <v>6400</v>
       </c>
     </row>
@@ -16773,11 +17412,656 @@
         <v>0</v>
       </c>
     </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B195">
+        <v>3474</v>
+      </c>
+      <c r="C195" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" t="s">
+        <v>25</v>
+      </c>
+      <c r="E195" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195">
+        <v>6400</v>
+      </c>
+      <c r="G195">
+        <v>6400</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195" t="s">
+        <v>17</v>
+      </c>
+      <c r="K195" s="8">
+        <f t="shared" si="2"/>
+        <v>-6400</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B196">
+        <v>4752</v>
+      </c>
+      <c r="C196" t="s">
+        <v>82</v>
+      </c>
+      <c r="D196" t="s">
+        <v>16</v>
+      </c>
+      <c r="E196" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196">
+        <v>7852.99</v>
+      </c>
+      <c r="G196">
+        <v>6400</v>
+      </c>
+      <c r="H196">
+        <v>7.67</v>
+      </c>
+      <c r="I196">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="J196" t="s">
+        <v>17</v>
+      </c>
+      <c r="K196" s="8">
+        <f t="shared" ref="K196:K212" si="3">IF(OR(ISNUMBER(FIND("卖基金",D196)),ISNUMBER(FIND("普通取现",D196)),ISNUMBER(FIND("快速取现",D196)),ISNUMBER(FIND("卖基金极速回活期宝",D196)),ISNUMBER(FIND("买基金取现",D196)),ISNUMBER(FIND("赎回",D196))),-1*G196,1*G196)</f>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>43593</v>
+      </c>
+      <c r="B197">
+        <v>3474</v>
+      </c>
+      <c r="C197" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" t="s">
+        <v>27</v>
+      </c>
+      <c r="E197" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197">
+        <v>2608.96</v>
+      </c>
+      <c r="G197">
+        <v>2608.96</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197" t="s">
+        <v>84</v>
+      </c>
+      <c r="K197" s="8">
+        <f t="shared" si="3"/>
+        <v>2608.96</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>43601</v>
+      </c>
+      <c r="B198">
+        <v>110022</v>
+      </c>
+      <c r="C198" t="s">
+        <v>41</v>
+      </c>
+      <c r="D198" t="s">
+        <v>55</v>
+      </c>
+      <c r="E198" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198">
+        <v>3730.54</v>
+      </c>
+      <c r="G198">
+        <v>9940.44</v>
+      </c>
+      <c r="H198">
+        <v>49.95</v>
+      </c>
+      <c r="I198">
+        <v>2.6779999999999999</v>
+      </c>
+      <c r="J198" t="s">
+        <v>17</v>
+      </c>
+      <c r="K198" s="8">
+        <f t="shared" si="3"/>
+        <v>-9940.44</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>43601</v>
+      </c>
+      <c r="B199">
+        <v>3474</v>
+      </c>
+      <c r="C199" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" t="s">
+        <v>54</v>
+      </c>
+      <c r="E199" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199">
+        <v>10016.5</v>
+      </c>
+      <c r="G199">
+        <v>10016.5</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199" t="s">
+        <v>17</v>
+      </c>
+      <c r="K199" s="8">
+        <f t="shared" si="3"/>
+        <v>-10016.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>43601</v>
+      </c>
+      <c r="B200">
+        <v>3474</v>
+      </c>
+      <c r="C200" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" t="s">
+        <v>25</v>
+      </c>
+      <c r="E200" t="s">
+        <v>13</v>
+      </c>
+      <c r="F200">
+        <v>6400</v>
+      </c>
+      <c r="G200">
+        <v>6400</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200" t="s">
+        <v>17</v>
+      </c>
+      <c r="K200" s="8">
+        <f t="shared" si="3"/>
+        <v>-6400</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>43601</v>
+      </c>
+      <c r="B201">
+        <v>110027</v>
+      </c>
+      <c r="C201" t="s">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s">
+        <v>16</v>
+      </c>
+      <c r="E201" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201">
+        <v>3942.59</v>
+      </c>
+      <c r="G201">
+        <v>6400</v>
+      </c>
+      <c r="H201">
+        <v>5.12</v>
+      </c>
+      <c r="I201">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="J201" t="s">
+        <v>17</v>
+      </c>
+      <c r="K201" s="8">
+        <f t="shared" si="3"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>43605</v>
+      </c>
+      <c r="B202">
+        <v>3474</v>
+      </c>
+      <c r="C202" t="s">
+        <v>10</v>
+      </c>
+      <c r="D202" t="s">
+        <v>83</v>
+      </c>
+      <c r="E202" t="s">
+        <v>13</v>
+      </c>
+      <c r="F202">
+        <v>76.06</v>
+      </c>
+      <c r="G202">
+        <v>76.06</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202" t="s">
+        <v>17</v>
+      </c>
+      <c r="K202" s="8">
+        <f t="shared" si="3"/>
+        <v>76.06</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B203">
+        <v>3474</v>
+      </c>
+      <c r="C203" t="s">
+        <v>10</v>
+      </c>
+      <c r="D203" t="s">
+        <v>25</v>
+      </c>
+      <c r="E203" t="s">
+        <v>13</v>
+      </c>
+      <c r="F203">
+        <v>6400</v>
+      </c>
+      <c r="G203">
+        <v>6400</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203" t="s">
+        <v>17</v>
+      </c>
+      <c r="K203" s="8">
+        <f t="shared" si="3"/>
+        <v>-6400</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B204">
+        <v>3474</v>
+      </c>
+      <c r="C204" t="s">
+        <v>10</v>
+      </c>
+      <c r="D204" t="s">
+        <v>25</v>
+      </c>
+      <c r="E204" t="s">
+        <v>13</v>
+      </c>
+      <c r="F204">
+        <v>6400</v>
+      </c>
+      <c r="G204">
+        <v>6400</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204" t="s">
+        <v>17</v>
+      </c>
+      <c r="K204" s="8">
+        <f t="shared" si="3"/>
+        <v>-6400</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B205">
+        <v>110027</v>
+      </c>
+      <c r="C205" t="s">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s">
+        <v>16</v>
+      </c>
+      <c r="E205" t="s">
+        <v>13</v>
+      </c>
+      <c r="F205">
+        <v>4011.84</v>
+      </c>
+      <c r="G205">
+        <v>6400</v>
+      </c>
+      <c r="H205">
+        <v>5.12</v>
+      </c>
+      <c r="I205">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="J205" t="s">
+        <v>17</v>
+      </c>
+      <c r="K205" s="8">
+        <f t="shared" si="3"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>43619</v>
+      </c>
+      <c r="B206">
+        <v>164906</v>
+      </c>
+      <c r="C206" t="s">
+        <v>32</v>
+      </c>
+      <c r="D206" t="s">
+        <v>16</v>
+      </c>
+      <c r="E206" t="s">
+        <v>13</v>
+      </c>
+      <c r="F206">
+        <v>5738.18</v>
+      </c>
+      <c r="G206">
+        <v>6400</v>
+      </c>
+      <c r="H206">
+        <v>7.67</v>
+      </c>
+      <c r="I206">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="J206" t="s">
+        <v>17</v>
+      </c>
+      <c r="K206" s="8">
+        <f t="shared" si="3"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>43635</v>
+      </c>
+      <c r="B207">
+        <v>3474</v>
+      </c>
+      <c r="C207" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" t="s">
+        <v>29</v>
+      </c>
+      <c r="E207" t="s">
+        <v>13</v>
+      </c>
+      <c r="F207">
+        <v>3600</v>
+      </c>
+      <c r="G207">
+        <v>3600</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207" t="s">
+        <v>17</v>
+      </c>
+      <c r="K207" s="8">
+        <f t="shared" si="3"/>
+        <v>-3600</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>43635</v>
+      </c>
+      <c r="B208">
+        <v>1666</v>
+      </c>
+      <c r="C208" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208" t="s">
+        <v>29</v>
+      </c>
+      <c r="E208" t="s">
+        <v>13</v>
+      </c>
+      <c r="F208">
+        <v>2800</v>
+      </c>
+      <c r="G208">
+        <v>2800</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208" t="s">
+        <v>17</v>
+      </c>
+      <c r="K208" s="8">
+        <f t="shared" si="3"/>
+        <v>-2800</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>43635</v>
+      </c>
+      <c r="B209">
+        <v>3474</v>
+      </c>
+      <c r="C209" t="s">
+        <v>10</v>
+      </c>
+      <c r="D209" t="s">
+        <v>25</v>
+      </c>
+      <c r="E209" t="s">
+        <v>13</v>
+      </c>
+      <c r="F209">
+        <v>6400</v>
+      </c>
+      <c r="G209">
+        <v>6400</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209" t="s">
+        <v>17</v>
+      </c>
+      <c r="K209" s="8">
+        <f t="shared" si="3"/>
+        <v>-6400</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>43635</v>
+      </c>
+      <c r="B210">
+        <v>110027</v>
+      </c>
+      <c r="C210" t="s">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s">
+        <v>16</v>
+      </c>
+      <c r="E210" t="s">
+        <v>13</v>
+      </c>
+      <c r="F210">
+        <v>4042.28</v>
+      </c>
+      <c r="G210">
+        <v>6400</v>
+      </c>
+      <c r="H210">
+        <v>5.12</v>
+      </c>
+      <c r="I210">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="J210" t="s">
+        <v>17</v>
+      </c>
+      <c r="K210" s="8">
+        <f t="shared" si="3"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>43635</v>
+      </c>
+      <c r="B211">
+        <v>3474</v>
+      </c>
+      <c r="C211" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" t="s">
+        <v>29</v>
+      </c>
+      <c r="E211" t="s">
+        <v>13</v>
+      </c>
+      <c r="F211">
+        <v>6400</v>
+      </c>
+      <c r="G211">
+        <v>6400</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211" t="s">
+        <v>17</v>
+      </c>
+      <c r="K211" s="8">
+        <f t="shared" si="3"/>
+        <v>-6400</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>43637</v>
+      </c>
+      <c r="B212">
+        <v>4752</v>
+      </c>
+      <c r="C212" t="s">
+        <v>82</v>
+      </c>
+      <c r="D212" t="s">
+        <v>12</v>
+      </c>
+      <c r="E212" t="s">
+        <v>13</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212" t="s">
+        <v>9</v>
+      </c>
+      <c r="K212" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J194" xr:uid="{3E5667DD-794A-4223-B0B6-2B21E8545DE8}"/>
-  <sortState ref="A2:J194">
-    <sortCondition ref="A1"/>
-  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -16787,10 +18071,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C472EC2-BF49-4D48-843D-D6F2646F1A49}">
-  <dimension ref="A1:J535"/>
+  <dimension ref="A1:J593"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17115,7 +18399,7 @@
         <v>76</v>
       </c>
       <c r="J11" s="16">
-        <v>1132.4100000000001</v>
+        <v>1918.4</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -17285,11 +18569,11 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17" s="15" t="s">
-        <v>61</v>
+      <c r="I17" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="J17" s="16">
-        <v>6788.4300000000012</v>
+        <v>785.99</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -17314,6 +18598,12 @@
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="16">
+        <v>7574.420000000001</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -29206,9 +30496,1343 @@
         <v>1</v>
       </c>
     </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A536" s="1">
+        <v>43619</v>
+      </c>
+      <c r="B536">
+        <v>1666</v>
+      </c>
+      <c r="C536" t="s">
+        <v>7</v>
+      </c>
+      <c r="D536" t="s">
+        <v>8</v>
+      </c>
+      <c r="E536" t="s">
+        <v>9</v>
+      </c>
+      <c r="F536">
+        <v>10.57</v>
+      </c>
+      <c r="G536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A537" s="1">
+        <v>43619</v>
+      </c>
+      <c r="B537">
+        <v>3474</v>
+      </c>
+      <c r="C537" t="s">
+        <v>10</v>
+      </c>
+      <c r="D537" t="s">
+        <v>8</v>
+      </c>
+      <c r="E537" t="s">
+        <v>9</v>
+      </c>
+      <c r="F537">
+        <v>7.69</v>
+      </c>
+      <c r="G537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A538" s="1">
+        <v>43619</v>
+      </c>
+      <c r="B538">
+        <v>3474</v>
+      </c>
+      <c r="C538" t="s">
+        <v>10</v>
+      </c>
+      <c r="D538" t="s">
+        <v>8</v>
+      </c>
+      <c r="E538" t="s">
+        <v>9</v>
+      </c>
+      <c r="F538">
+        <v>0.63</v>
+      </c>
+      <c r="G538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A539" s="1">
+        <v>43620</v>
+      </c>
+      <c r="B539">
+        <v>1666</v>
+      </c>
+      <c r="C539" t="s">
+        <v>7</v>
+      </c>
+      <c r="D539" t="s">
+        <v>8</v>
+      </c>
+      <c r="E539" t="s">
+        <v>9</v>
+      </c>
+      <c r="F539">
+        <v>3.53</v>
+      </c>
+      <c r="G539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A540" s="1">
+        <v>43620</v>
+      </c>
+      <c r="B540">
+        <v>3474</v>
+      </c>
+      <c r="C540" t="s">
+        <v>10</v>
+      </c>
+      <c r="D540" t="s">
+        <v>8</v>
+      </c>
+      <c r="E540" t="s">
+        <v>9</v>
+      </c>
+      <c r="F540">
+        <v>2.6</v>
+      </c>
+      <c r="G540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A541" s="1">
+        <v>43620</v>
+      </c>
+      <c r="B541">
+        <v>3474</v>
+      </c>
+      <c r="C541" t="s">
+        <v>10</v>
+      </c>
+      <c r="D541" t="s">
+        <v>8</v>
+      </c>
+      <c r="E541" t="s">
+        <v>9</v>
+      </c>
+      <c r="F541">
+        <v>0.21</v>
+      </c>
+      <c r="G541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A542" s="1">
+        <v>43621</v>
+      </c>
+      <c r="B542">
+        <v>3474</v>
+      </c>
+      <c r="C542" t="s">
+        <v>10</v>
+      </c>
+      <c r="D542" t="s">
+        <v>8</v>
+      </c>
+      <c r="E542" t="s">
+        <v>9</v>
+      </c>
+      <c r="F542">
+        <v>2.54</v>
+      </c>
+      <c r="G542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A543" s="1">
+        <v>43621</v>
+      </c>
+      <c r="B543">
+        <v>3474</v>
+      </c>
+      <c r="C543" t="s">
+        <v>10</v>
+      </c>
+      <c r="D543" t="s">
+        <v>8</v>
+      </c>
+      <c r="E543" t="s">
+        <v>9</v>
+      </c>
+      <c r="F543">
+        <v>0.21</v>
+      </c>
+      <c r="G543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A544" s="1">
+        <v>43621</v>
+      </c>
+      <c r="B544">
+        <v>1666</v>
+      </c>
+      <c r="C544" t="s">
+        <v>7</v>
+      </c>
+      <c r="D544" t="s">
+        <v>8</v>
+      </c>
+      <c r="E544" t="s">
+        <v>9</v>
+      </c>
+      <c r="F544">
+        <v>3.79</v>
+      </c>
+      <c r="G544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A545" s="1">
+        <v>43622</v>
+      </c>
+      <c r="B545">
+        <v>1666</v>
+      </c>
+      <c r="C545" t="s">
+        <v>7</v>
+      </c>
+      <c r="D545" t="s">
+        <v>8</v>
+      </c>
+      <c r="E545" t="s">
+        <v>9</v>
+      </c>
+      <c r="F545">
+        <v>3.5</v>
+      </c>
+      <c r="G545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A546" s="1">
+        <v>43622</v>
+      </c>
+      <c r="B546">
+        <v>3474</v>
+      </c>
+      <c r="C546" t="s">
+        <v>10</v>
+      </c>
+      <c r="D546" t="s">
+        <v>8</v>
+      </c>
+      <c r="E546" t="s">
+        <v>9</v>
+      </c>
+      <c r="F546">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A547" s="1">
+        <v>43622</v>
+      </c>
+      <c r="B547">
+        <v>3474</v>
+      </c>
+      <c r="C547" t="s">
+        <v>10</v>
+      </c>
+      <c r="D547" t="s">
+        <v>8</v>
+      </c>
+      <c r="E547" t="s">
+        <v>9</v>
+      </c>
+      <c r="F547">
+        <v>0.21</v>
+      </c>
+      <c r="G547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A548" s="1">
+        <v>43626</v>
+      </c>
+      <c r="B548">
+        <v>3474</v>
+      </c>
+      <c r="C548" t="s">
+        <v>10</v>
+      </c>
+      <c r="D548" t="s">
+        <v>8</v>
+      </c>
+      <c r="E548" t="s">
+        <v>9</v>
+      </c>
+      <c r="F548">
+        <v>10.07</v>
+      </c>
+      <c r="G548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A549" s="1">
+        <v>43626</v>
+      </c>
+      <c r="B549">
+        <v>3474</v>
+      </c>
+      <c r="C549" t="s">
+        <v>10</v>
+      </c>
+      <c r="D549" t="s">
+        <v>8</v>
+      </c>
+      <c r="E549" t="s">
+        <v>9</v>
+      </c>
+      <c r="F549">
+        <v>0.82</v>
+      </c>
+      <c r="G549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A550" s="1">
+        <v>43626</v>
+      </c>
+      <c r="B550">
+        <v>1666</v>
+      </c>
+      <c r="C550" t="s">
+        <v>7</v>
+      </c>
+      <c r="D550" t="s">
+        <v>8</v>
+      </c>
+      <c r="E550" t="s">
+        <v>9</v>
+      </c>
+      <c r="F550">
+        <v>13.81</v>
+      </c>
+      <c r="G550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A551" s="1">
+        <v>43627</v>
+      </c>
+      <c r="B551">
+        <v>3474</v>
+      </c>
+      <c r="C551" t="s">
+        <v>10</v>
+      </c>
+      <c r="D551" t="s">
+        <v>8</v>
+      </c>
+      <c r="E551" t="s">
+        <v>9</v>
+      </c>
+      <c r="F551">
+        <v>0.22</v>
+      </c>
+      <c r="G551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A552" s="1">
+        <v>43627</v>
+      </c>
+      <c r="B552">
+        <v>3474</v>
+      </c>
+      <c r="C552" t="s">
+        <v>10</v>
+      </c>
+      <c r="D552" t="s">
+        <v>8</v>
+      </c>
+      <c r="E552" t="s">
+        <v>9</v>
+      </c>
+      <c r="F552">
+        <v>2.72</v>
+      </c>
+      <c r="G552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A553" s="1">
+        <v>43627</v>
+      </c>
+      <c r="B553">
+        <v>1666</v>
+      </c>
+      <c r="C553" t="s">
+        <v>7</v>
+      </c>
+      <c r="D553" t="s">
+        <v>8</v>
+      </c>
+      <c r="E553" t="s">
+        <v>9</v>
+      </c>
+      <c r="F553">
+        <v>3.48</v>
+      </c>
+      <c r="G553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A554" s="1">
+        <v>43628</v>
+      </c>
+      <c r="B554">
+        <v>3474</v>
+      </c>
+      <c r="C554" t="s">
+        <v>10</v>
+      </c>
+      <c r="D554" t="s">
+        <v>8</v>
+      </c>
+      <c r="E554" t="s">
+        <v>9</v>
+      </c>
+      <c r="F554">
+        <v>2.56</v>
+      </c>
+      <c r="G554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A555" s="1">
+        <v>43628</v>
+      </c>
+      <c r="B555">
+        <v>3474</v>
+      </c>
+      <c r="C555" t="s">
+        <v>10</v>
+      </c>
+      <c r="D555" t="s">
+        <v>8</v>
+      </c>
+      <c r="E555" t="s">
+        <v>9</v>
+      </c>
+      <c r="F555">
+        <v>0.21</v>
+      </c>
+      <c r="G555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A556" s="1">
+        <v>43628</v>
+      </c>
+      <c r="B556">
+        <v>1666</v>
+      </c>
+      <c r="C556" t="s">
+        <v>7</v>
+      </c>
+      <c r="D556" t="s">
+        <v>8</v>
+      </c>
+      <c r="E556" t="s">
+        <v>9</v>
+      </c>
+      <c r="F556">
+        <v>3.6</v>
+      </c>
+      <c r="G556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A557" s="1">
+        <v>43629</v>
+      </c>
+      <c r="B557">
+        <v>3474</v>
+      </c>
+      <c r="C557" t="s">
+        <v>10</v>
+      </c>
+      <c r="D557" t="s">
+        <v>8</v>
+      </c>
+      <c r="E557" t="s">
+        <v>9</v>
+      </c>
+      <c r="F557">
+        <v>2.59</v>
+      </c>
+      <c r="G557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A558" s="1">
+        <v>43629</v>
+      </c>
+      <c r="B558">
+        <v>3474</v>
+      </c>
+      <c r="C558" t="s">
+        <v>10</v>
+      </c>
+      <c r="D558" t="s">
+        <v>8</v>
+      </c>
+      <c r="E558" t="s">
+        <v>9</v>
+      </c>
+      <c r="F558">
+        <v>0.21</v>
+      </c>
+      <c r="G558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A559" s="1">
+        <v>43629</v>
+      </c>
+      <c r="B559">
+        <v>1666</v>
+      </c>
+      <c r="C559" t="s">
+        <v>7</v>
+      </c>
+      <c r="D559" t="s">
+        <v>8</v>
+      </c>
+      <c r="E559" t="s">
+        <v>9</v>
+      </c>
+      <c r="F559">
+        <v>3.65</v>
+      </c>
+      <c r="G559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A560" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B560">
+        <v>1666</v>
+      </c>
+      <c r="C560" t="s">
+        <v>7</v>
+      </c>
+      <c r="D560" t="s">
+        <v>8</v>
+      </c>
+      <c r="E560" t="s">
+        <v>9</v>
+      </c>
+      <c r="F560">
+        <v>3.72</v>
+      </c>
+      <c r="G560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A561" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B561">
+        <v>3474</v>
+      </c>
+      <c r="C561" t="s">
+        <v>10</v>
+      </c>
+      <c r="D561" t="s">
+        <v>8</v>
+      </c>
+      <c r="E561" t="s">
+        <v>9</v>
+      </c>
+      <c r="F561">
+        <v>2.6</v>
+      </c>
+      <c r="G561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A562" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B562">
+        <v>3474</v>
+      </c>
+      <c r="C562" t="s">
+        <v>10</v>
+      </c>
+      <c r="D562" t="s">
+        <v>8</v>
+      </c>
+      <c r="E562" t="s">
+        <v>9</v>
+      </c>
+      <c r="F562">
+        <v>0.21</v>
+      </c>
+      <c r="G562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A563" s="1">
+        <v>43633</v>
+      </c>
+      <c r="B563">
+        <v>3474</v>
+      </c>
+      <c r="C563" t="s">
+        <v>10</v>
+      </c>
+      <c r="D563" t="s">
+        <v>8</v>
+      </c>
+      <c r="E563" t="s">
+        <v>9</v>
+      </c>
+      <c r="F563">
+        <v>7.77</v>
+      </c>
+      <c r="G563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A564" s="1">
+        <v>43633</v>
+      </c>
+      <c r="B564">
+        <v>3474</v>
+      </c>
+      <c r="C564" t="s">
+        <v>10</v>
+      </c>
+      <c r="D564" t="s">
+        <v>8</v>
+      </c>
+      <c r="E564" t="s">
+        <v>9</v>
+      </c>
+      <c r="F564">
+        <v>0.63</v>
+      </c>
+      <c r="G564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A565" s="1">
+        <v>43633</v>
+      </c>
+      <c r="B565">
+        <v>1666</v>
+      </c>
+      <c r="C565" t="s">
+        <v>7</v>
+      </c>
+      <c r="D565" t="s">
+        <v>8</v>
+      </c>
+      <c r="E565" t="s">
+        <v>9</v>
+      </c>
+      <c r="F565">
+        <v>11.74</v>
+      </c>
+      <c r="G565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A566" s="1">
+        <v>43634</v>
+      </c>
+      <c r="B566">
+        <v>1666</v>
+      </c>
+      <c r="C566" t="s">
+        <v>7</v>
+      </c>
+      <c r="D566" t="s">
+        <v>8</v>
+      </c>
+      <c r="E566" t="s">
+        <v>9</v>
+      </c>
+      <c r="F566">
+        <v>4.22</v>
+      </c>
+      <c r="G566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A567" s="1">
+        <v>43634</v>
+      </c>
+      <c r="B567">
+        <v>3474</v>
+      </c>
+      <c r="C567" t="s">
+        <v>10</v>
+      </c>
+      <c r="D567" t="s">
+        <v>8</v>
+      </c>
+      <c r="E567" t="s">
+        <v>9</v>
+      </c>
+      <c r="F567">
+        <v>2.61</v>
+      </c>
+      <c r="G567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A568" s="1">
+        <v>43634</v>
+      </c>
+      <c r="B568">
+        <v>3474</v>
+      </c>
+      <c r="C568" t="s">
+        <v>10</v>
+      </c>
+      <c r="D568" t="s">
+        <v>8</v>
+      </c>
+      <c r="E568" t="s">
+        <v>9</v>
+      </c>
+      <c r="F568">
+        <v>0.21</v>
+      </c>
+      <c r="G568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A569" s="1">
+        <v>43635</v>
+      </c>
+      <c r="B569">
+        <v>3474</v>
+      </c>
+      <c r="C569" t="s">
+        <v>10</v>
+      </c>
+      <c r="D569" t="s">
+        <v>8</v>
+      </c>
+      <c r="E569" t="s">
+        <v>9</v>
+      </c>
+      <c r="F569">
+        <v>1.87</v>
+      </c>
+      <c r="G569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A570" s="1">
+        <v>43635</v>
+      </c>
+      <c r="B570">
+        <v>3474</v>
+      </c>
+      <c r="C570" t="s">
+        <v>10</v>
+      </c>
+      <c r="D570" t="s">
+        <v>8</v>
+      </c>
+      <c r="E570" t="s">
+        <v>9</v>
+      </c>
+      <c r="F570">
+        <v>0.15</v>
+      </c>
+      <c r="G570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A571" s="1">
+        <v>43635</v>
+      </c>
+      <c r="B571">
+        <v>1666</v>
+      </c>
+      <c r="C571" t="s">
+        <v>7</v>
+      </c>
+      <c r="D571" t="s">
+        <v>8</v>
+      </c>
+      <c r="E571" t="s">
+        <v>9</v>
+      </c>
+      <c r="F571">
+        <v>3.79</v>
+      </c>
+      <c r="G571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A572" s="1">
+        <v>43636</v>
+      </c>
+      <c r="B572">
+        <v>3474</v>
+      </c>
+      <c r="C572" t="s">
+        <v>10</v>
+      </c>
+      <c r="D572" t="s">
+        <v>8</v>
+      </c>
+      <c r="E572" t="s">
+        <v>9</v>
+      </c>
+      <c r="F572">
+        <v>1.29</v>
+      </c>
+      <c r="G572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A573" s="1">
+        <v>43636</v>
+      </c>
+      <c r="B573">
+        <v>3474</v>
+      </c>
+      <c r="C573" t="s">
+        <v>10</v>
+      </c>
+      <c r="D573" t="s">
+        <v>8</v>
+      </c>
+      <c r="E573" t="s">
+        <v>9</v>
+      </c>
+      <c r="F573">
+        <v>0.21</v>
+      </c>
+      <c r="G573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A574" s="1">
+        <v>43636</v>
+      </c>
+      <c r="B574">
+        <v>1666</v>
+      </c>
+      <c r="C574" t="s">
+        <v>7</v>
+      </c>
+      <c r="D574" t="s">
+        <v>8</v>
+      </c>
+      <c r="E574" t="s">
+        <v>9</v>
+      </c>
+      <c r="F574">
+        <v>3.86</v>
+      </c>
+      <c r="G574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A575" s="1">
+        <v>43637</v>
+      </c>
+      <c r="B575">
+        <v>1666</v>
+      </c>
+      <c r="C575" t="s">
+        <v>7</v>
+      </c>
+      <c r="D575" t="s">
+        <v>8</v>
+      </c>
+      <c r="E575" t="s">
+        <v>9</v>
+      </c>
+      <c r="F575">
+        <v>3.74</v>
+      </c>
+      <c r="G575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A576" s="1">
+        <v>43637</v>
+      </c>
+      <c r="B576">
+        <v>3474</v>
+      </c>
+      <c r="C576" t="s">
+        <v>10</v>
+      </c>
+      <c r="D576" t="s">
+        <v>8</v>
+      </c>
+      <c r="E576" t="s">
+        <v>9</v>
+      </c>
+      <c r="F576">
+        <v>1.29</v>
+      </c>
+      <c r="G576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A577" s="1">
+        <v>43637</v>
+      </c>
+      <c r="B577">
+        <v>3474</v>
+      </c>
+      <c r="C577" t="s">
+        <v>10</v>
+      </c>
+      <c r="D577" t="s">
+        <v>8</v>
+      </c>
+      <c r="E577" t="s">
+        <v>9</v>
+      </c>
+      <c r="F577">
+        <v>0.21</v>
+      </c>
+      <c r="G577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A578" s="1">
+        <v>43640</v>
+      </c>
+      <c r="B578">
+        <v>1666</v>
+      </c>
+      <c r="C578" t="s">
+        <v>7</v>
+      </c>
+      <c r="D578" t="s">
+        <v>8</v>
+      </c>
+      <c r="E578" t="s">
+        <v>9</v>
+      </c>
+      <c r="F578">
+        <v>11.06</v>
+      </c>
+      <c r="G578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A579" s="1">
+        <v>43640</v>
+      </c>
+      <c r="B579">
+        <v>3474</v>
+      </c>
+      <c r="C579" t="s">
+        <v>10</v>
+      </c>
+      <c r="D579" t="s">
+        <v>8</v>
+      </c>
+      <c r="E579" t="s">
+        <v>9</v>
+      </c>
+      <c r="F579">
+        <v>3.8</v>
+      </c>
+      <c r="G579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A580" s="1">
+        <v>43640</v>
+      </c>
+      <c r="B580">
+        <v>3474</v>
+      </c>
+      <c r="C580" t="s">
+        <v>10</v>
+      </c>
+      <c r="D580" t="s">
+        <v>8</v>
+      </c>
+      <c r="E580" t="s">
+        <v>9</v>
+      </c>
+      <c r="F580">
+        <v>0.64</v>
+      </c>
+      <c r="G580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A581" s="2">
+        <v>43640</v>
+      </c>
+      <c r="B581" s="3">
+        <v>340001</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D581" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E581" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F581" s="4">
+        <v>617.75</v>
+      </c>
+      <c r="G581" s="4">
+        <v>1.0793999999999999</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A582" s="1">
+        <v>43641</v>
+      </c>
+      <c r="B582">
+        <v>3474</v>
+      </c>
+      <c r="C582" t="s">
+        <v>10</v>
+      </c>
+      <c r="D582" t="s">
+        <v>8</v>
+      </c>
+      <c r="E582" t="s">
+        <v>9</v>
+      </c>
+      <c r="F582">
+        <v>1.28</v>
+      </c>
+      <c r="G582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A583" s="1">
+        <v>43641</v>
+      </c>
+      <c r="B583">
+        <v>3474</v>
+      </c>
+      <c r="C583" t="s">
+        <v>10</v>
+      </c>
+      <c r="D583" t="s">
+        <v>8</v>
+      </c>
+      <c r="E583" t="s">
+        <v>9</v>
+      </c>
+      <c r="F583">
+        <v>0.21</v>
+      </c>
+      <c r="G583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A584" s="1">
+        <v>43641</v>
+      </c>
+      <c r="B584">
+        <v>1666</v>
+      </c>
+      <c r="C584" t="s">
+        <v>7</v>
+      </c>
+      <c r="D584" t="s">
+        <v>8</v>
+      </c>
+      <c r="E584" t="s">
+        <v>9</v>
+      </c>
+      <c r="F584">
+        <v>3.69</v>
+      </c>
+      <c r="G584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A585" s="1">
+        <v>43642</v>
+      </c>
+      <c r="B585">
+        <v>1666</v>
+      </c>
+      <c r="C585" t="s">
+        <v>7</v>
+      </c>
+      <c r="D585" t="s">
+        <v>8</v>
+      </c>
+      <c r="E585" t="s">
+        <v>9</v>
+      </c>
+      <c r="F585">
+        <v>3.75</v>
+      </c>
+      <c r="G585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A586" s="1">
+        <v>43642</v>
+      </c>
+      <c r="B586">
+        <v>3474</v>
+      </c>
+      <c r="C586" t="s">
+        <v>10</v>
+      </c>
+      <c r="D586" t="s">
+        <v>8</v>
+      </c>
+      <c r="E586" t="s">
+        <v>9</v>
+      </c>
+      <c r="F586">
+        <v>1.28</v>
+      </c>
+      <c r="G586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A587" s="1">
+        <v>43642</v>
+      </c>
+      <c r="B587">
+        <v>3474</v>
+      </c>
+      <c r="C587" t="s">
+        <v>10</v>
+      </c>
+      <c r="D587" t="s">
+        <v>8</v>
+      </c>
+      <c r="E587" t="s">
+        <v>9</v>
+      </c>
+      <c r="F587">
+        <v>0.21</v>
+      </c>
+      <c r="G587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A588" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B588">
+        <v>1666</v>
+      </c>
+      <c r="C588" t="s">
+        <v>7</v>
+      </c>
+      <c r="D588" t="s">
+        <v>8</v>
+      </c>
+      <c r="E588" t="s">
+        <v>9</v>
+      </c>
+      <c r="F588">
+        <v>3.71</v>
+      </c>
+      <c r="G588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A589" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B589">
+        <v>3474</v>
+      </c>
+      <c r="C589" t="s">
+        <v>10</v>
+      </c>
+      <c r="D589" t="s">
+        <v>8</v>
+      </c>
+      <c r="E589" t="s">
+        <v>9</v>
+      </c>
+      <c r="F589">
+        <v>1.27</v>
+      </c>
+      <c r="G589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A590" s="1">
+        <v>43643</v>
+      </c>
+      <c r="B590">
+        <v>3474</v>
+      </c>
+      <c r="C590" t="s">
+        <v>10</v>
+      </c>
+      <c r="D590" t="s">
+        <v>8</v>
+      </c>
+      <c r="E590" t="s">
+        <v>9</v>
+      </c>
+      <c r="F590">
+        <v>0.21</v>
+      </c>
+      <c r="G590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A591" s="1">
+        <v>43644</v>
+      </c>
+      <c r="B591">
+        <v>1666</v>
+      </c>
+      <c r="C591" t="s">
+        <v>7</v>
+      </c>
+      <c r="D591" t="s">
+        <v>8</v>
+      </c>
+      <c r="E591" t="s">
+        <v>9</v>
+      </c>
+      <c r="F591">
+        <v>3.55</v>
+      </c>
+      <c r="G591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A592" s="1">
+        <v>43644</v>
+      </c>
+      <c r="B592">
+        <v>3474</v>
+      </c>
+      <c r="C592" t="s">
+        <v>10</v>
+      </c>
+      <c r="D592" t="s">
+        <v>8</v>
+      </c>
+      <c r="E592" t="s">
+        <v>9</v>
+      </c>
+      <c r="F592">
+        <v>1.28</v>
+      </c>
+      <c r="G592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A593" s="1">
+        <v>43644</v>
+      </c>
+      <c r="B593">
+        <v>3474</v>
+      </c>
+      <c r="C593" t="s">
+        <v>10</v>
+      </c>
+      <c r="D593" t="s">
+        <v>8</v>
+      </c>
+      <c r="E593" t="s">
+        <v>9</v>
+      </c>
+      <c r="F593">
+        <v>0.21</v>
+      </c>
+      <c r="G593">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A479:G535">
-    <sortCondition ref="A479"/>
+  <sortState ref="A536:G593">
+    <sortCondition ref="A536"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Portfolio/天天基金对账单记录.xlsx
+++ b/Portfolio/天天基金对账单记录.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8378680B-17AD-4F4B-89BF-8D9D16822314}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D4E166-5617-42E1-A5D9-96932597F65A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14160" yWindow="3180" windowWidth="28800" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="账户净资产" sheetId="4" r:id="rId1"/>
@@ -14,12 +14,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">分红信息!$A$1:$H$663</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">账户操作!$A$1:$J$194</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">账户操作!$A$1:$J$246</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3301" uniqueCount="97">
   <si>
     <t>确认日期</t>
   </si>
@@ -516,15 +516,24 @@
   <si>
     <t>创金合信中证1000指数增强C</t>
   </si>
+  <si>
+    <t>期末净资产是再天天基金网页版对账单查询的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末净流入是账户月操作净流入 + 月分红信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="000000"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.000000000000_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -616,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -651,6 +660,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1052,7 +1062,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作者" refreshedDate="43739.466568634256" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="244" xr:uid="{AB9A4EC4-D549-42D2-9620-4C5E965FFE37}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作者" refreshedDate="43740.399831249997" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="244" xr:uid="{AB9A4EC4-D549-42D2-9620-4C5E965FFE37}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:K245" sheet="账户操作"/>
   </cacheSource>
@@ -1191,7 +1201,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="100000"/>
     </cacheField>
     <cacheField name="确认金额" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4210.55" maxValue="100000"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-100000" maxValue="100000"/>
     </cacheField>
     <cacheField name="手续费" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="49.95"/>
@@ -10502,11 +10512,11 @@
     <s v="卖基金充值"/>
     <s v="成功"/>
     <n v="10016.5"/>
+    <n v="-10016.5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="招商银行 | 6292"/>
     <n v="10016.5"/>
-    <n v="0"/>
-    <n v="1"/>
-    <s v="招商银行 | 6292"/>
-    <n v="-10016.5"/>
   </r>
   <r>
     <x v="73"/>
@@ -10857,7 +10867,7 @@
     <n v="0"/>
     <n v="1"/>
     <s v="招商银行 | 6292"/>
-    <n v="-2923.28"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="88"/>
@@ -10879,11 +10889,11 @@
     <s v="卖基金充值"/>
     <s v="成功"/>
     <n v="100000"/>
+    <n v="-100000"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="工商银行 | 4358"/>
     <n v="100000"/>
-    <n v="0"/>
-    <n v="1"/>
-    <s v="工商银行 | 4358"/>
-    <n v="-100000"/>
   </r>
   <r>
     <x v="89"/>
@@ -11110,7 +11120,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27C3ECA5-E614-4A5F-83AE-662E7C1EADF4}" name="数据透视表6" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27C3ECA5-E614-4A5F-83AE-662E7C1EADF4}" name="数据透视表6" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M2:O16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -11241,8 +11251,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EEF629F8-70F2-40C8-8849-4D5E0E1EC896}" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J2:K17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EEF629F8-70F2-40C8-8849-4D5E0E1EC896}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J2:K24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
       <items count="15">
@@ -11272,8 +11282,8 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
         <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
+        <item x="1"/>
+        <item x="2"/>
         <item x="3"/>
         <item sd="0" x="4"/>
         <item sd="0" x="5"/>
@@ -11295,11 +11305,14 @@
     <field x="7"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="22">
     <i>
       <x v="1"/>
     </i>
     <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
       <x v="1"/>
     </i>
     <i r="1">
@@ -11323,8 +11336,26 @@
     <i r="1">
       <x v="1"/>
     </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i r="1">
       <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
     </i>
     <i r="1">
       <x v="3"/>
@@ -11620,10 +11651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D59B494-3E84-4DBE-A33D-1CFBEA153B0C}">
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11635,7 +11666,7 @@
     <col min="6" max="6" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>56</v>
       </c>
@@ -11646,7 +11677,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42643</v>
       </c>
@@ -11656,8 +11687,11 @@
       <c r="C2" s="8">
         <v>3422.92</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42674</v>
       </c>
@@ -11667,8 +11701,11 @@
       <c r="C3" s="8">
         <v>3443.18</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42704</v>
       </c>
@@ -11679,7 +11716,7 @@
         <v>3385.79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42735</v>
       </c>
@@ -11690,7 +11727,7 @@
         <v>3608.59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42766</v>
       </c>
@@ -11701,7 +11738,7 @@
         <v>19146.79</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42794</v>
       </c>
@@ -11712,7 +11749,7 @@
         <v>23491.98</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42825</v>
       </c>
@@ -11723,7 +11760,7 @@
         <v>23816.84</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42855</v>
       </c>
@@ -11734,7 +11771,7 @@
         <v>39482.22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42886</v>
       </c>
@@ -11745,7 +11782,7 @@
         <v>55393.96</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42916</v>
       </c>
@@ -11756,7 +11793,7 @@
         <v>57528.49</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42947</v>
       </c>
@@ -11767,7 +11804,7 @@
         <v>56708.7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42978</v>
       </c>
@@ -11778,7 +11815,7 @@
         <v>57348.43</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43008</v>
       </c>
@@ -11789,7 +11826,7 @@
         <v>58146.83</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43039</v>
       </c>
@@ -11800,7 +11837,7 @@
         <v>59799.02</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43069</v>
       </c>
@@ -11811,7 +11848,7 @@
         <v>62003.37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43100</v>
       </c>
@@ -11822,7 +11859,7 @@
         <v>62980.11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43131</v>
       </c>
@@ -11833,7 +11870,7 @@
         <v>63571.61</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43159</v>
       </c>
@@ -11844,7 +11881,7 @@
         <v>62150.67</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43190</v>
       </c>
@@ -11855,7 +11892,7 @@
         <v>64006.51</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43220</v>
       </c>
@@ -11866,7 +11903,7 @@
         <v>79454.789999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43251</v>
       </c>
@@ -11877,7 +11914,7 @@
         <v>107667.02</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43281</v>
       </c>
@@ -11888,7 +11925,7 @@
         <v>141853.18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43312</v>
       </c>
@@ -11900,7 +11937,7 @@
       </c>
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43343</v>
       </c>
@@ -11912,7 +11949,7 @@
       </c>
       <c r="D25" s="18"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43373</v>
       </c>
@@ -11923,8 +11960,10 @@
         <v>454892</v>
       </c>
       <c r="D26" s="18"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G26" s="17"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43404</v>
       </c>
@@ -11935,8 +11974,10 @@
         <v>439498.98</v>
       </c>
       <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G27" s="17"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43434</v>
       </c>
@@ -11947,8 +11988,10 @@
         <v>451526.24</v>
       </c>
       <c r="D28" s="18"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G28" s="17"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43465</v>
       </c>
@@ -11959,8 +12002,11 @@
         <v>328663.27</v>
       </c>
       <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G29" s="17"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43496</v>
       </c>
@@ -11971,8 +12017,11 @@
         <v>367453.62</v>
       </c>
       <c r="D30" s="18"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G30" s="17"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43524</v>
       </c>
@@ -11983,8 +12032,11 @@
         <v>424159.98</v>
       </c>
       <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G31" s="17"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43555</v>
       </c>
@@ -11995,78 +12047,160 @@
         <v>464271.64</v>
       </c>
       <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G32" s="17"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43585</v>
       </c>
-      <c r="B33" s="8">
-        <v>12902.94</v>
+      <c r="B33">
+        <f>12800+333.18</f>
+        <v>13133.18</v>
       </c>
       <c r="C33" s="8">
-        <v>486900.66</v>
+        <v>474678.8</v>
       </c>
       <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B34">
+        <v>-3416.89</v>
+      </c>
+      <c r="C34">
+        <v>447079.26</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B35">
+        <f>-6400+785.99</f>
+        <v>-5614.01</v>
+      </c>
+      <c r="C35" s="8">
+        <v>452325.42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43677</v>
+      </c>
+      <c r="B36">
+        <f>31638.37+342.87</f>
+        <v>31981.239999999998</v>
+      </c>
+      <c r="C36" s="8">
+        <v>484666.46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43708</v>
+      </c>
+      <c r="B37">
+        <v>-23744.589999999986</v>
+      </c>
+      <c r="C37" s="8">
+        <v>457849.58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B38">
+        <v>118769.82</v>
+      </c>
+      <c r="C38" s="8">
+        <v>554315.47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>44043</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1">
+        <v>44074</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1">
+        <v>44104</v>
+      </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1">
+        <v>44135</v>
+      </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1">
+        <v>44165</v>
+      </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1">
+        <v>44196</v>
+      </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
@@ -12382,9 +12516,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N198" sqref="N198"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12657,7 +12791,7 @@
         <v>73</v>
       </c>
       <c r="N6" s="16">
-        <v>-25056.669999999969</v>
+        <v>197899.61000000004</v>
       </c>
       <c r="O6" s="16">
         <v>134.72</v>
@@ -12882,7 +13016,7 @@
         <v>68</v>
       </c>
       <c r="N11" s="16">
-        <v>-23671.919999999998</v>
+        <v>-3638.92</v>
       </c>
       <c r="O11" s="16">
         <v>60.19</v>
@@ -13017,7 +13151,7 @@
         <v>72</v>
       </c>
       <c r="N14" s="16">
-        <v>-26846.359999999986</v>
+        <v>-23923.079999999987</v>
       </c>
       <c r="O14" s="16">
         <v>5.12</v>
@@ -13062,7 +13196,7 @@
         <v>63</v>
       </c>
       <c r="N15" s="16">
-        <v>-84042.11</v>
+        <v>115957.89</v>
       </c>
       <c r="O15" s="16">
         <v>4.1900000000000004</v>
@@ -13107,13 +13241,13 @@
         <v>61</v>
       </c>
       <c r="N16" s="16">
-        <v>318437.4200000001</v>
+        <v>541393.70000000007</v>
       </c>
       <c r="O16" s="16">
         <v>543.67999999999972</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42879</v>
       </c>
@@ -13149,7 +13283,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42879</v>
       </c>
@@ -13185,7 +13319,7 @@
         <v>7920</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42879</v>
       </c>
@@ -13221,7 +13355,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43055</v>
       </c>
@@ -13257,7 +13391,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43209</v>
       </c>
@@ -13293,7 +13427,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43217</v>
       </c>
@@ -13329,7 +13463,7 @@
         <v>-4072.25</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43236</v>
       </c>
@@ -13365,7 +13499,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43237</v>
       </c>
@@ -13401,7 +13535,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43244</v>
       </c>
@@ -13437,7 +13571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43252</v>
       </c>
@@ -13473,7 +13607,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43266</v>
       </c>
@@ -13508,8 +13642,9 @@
         <f t="shared" si="0"/>
         <v>6400</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43266</v>
       </c>
@@ -13545,7 +13680,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43271</v>
       </c>
@@ -13580,8 +13715,9 @@
         <f t="shared" si="0"/>
         <v>6400</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O29" s="22"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43284</v>
       </c>
@@ -13617,7 +13753,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43284</v>
       </c>
@@ -13653,7 +13789,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43286</v>
       </c>
@@ -19589,7 +19725,7 @@
         <v>17</v>
       </c>
       <c r="K196" s="8">
-        <f t="shared" ref="K196:K245" si="3">IF(OR(ISNUMBER(FIND("卖基金",D196)),ISNUMBER(FIND("普通取现",D196)),ISNUMBER(FIND("快速取现",D196)),ISNUMBER(FIND("卖基金极速回活期宝",D196)),ISNUMBER(FIND("买基金取现",D196)),ISNUMBER(FIND("赎回",D196))),-1*G196,1*G196)</f>
+        <f t="shared" ref="K196:K227" si="3">IF(OR(ISNUMBER(FIND("卖基金",D196)),ISNUMBER(FIND("普通取现",D196)),ISNUMBER(FIND("快速取现",D196)),ISNUMBER(FIND("卖基金极速回活期宝",D196)),ISNUMBER(FIND("买基金取现",D196)),ISNUMBER(FIND("赎回",D196))),-1*G196,1*G196)</f>
         <v>6400</v>
       </c>
     </row>
@@ -19675,7 +19811,7 @@
       <c r="C199" t="s">
         <v>10</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E199" t="s">
@@ -19684,8 +19820,8 @@
       <c r="F199">
         <v>10016.5</v>
       </c>
-      <c r="G199">
-        <v>10016.5</v>
+      <c r="G199" s="12">
+        <v>-10016.5</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -19698,7 +19834,7 @@
       </c>
       <c r="K199" s="8">
         <f t="shared" si="3"/>
-        <v>-10016.5</v>
+        <v>10016.5</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
@@ -20669,8 +20805,7 @@
         <v>17</v>
       </c>
       <c r="K226" s="8">
-        <f t="shared" si="3"/>
-        <v>-2923.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
@@ -20719,7 +20854,7 @@
       <c r="C228" t="s">
         <v>10</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E228" t="s">
@@ -20728,8 +20863,8 @@
       <c r="F228">
         <v>100000</v>
       </c>
-      <c r="G228">
-        <v>100000</v>
+      <c r="G228" s="12">
+        <v>-100000</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20741,8 +20876,8 @@
         <v>81</v>
       </c>
       <c r="K228" s="8">
-        <f t="shared" si="3"/>
-        <v>-100000</v>
+        <f>IF(OR(ISNUMBER(FIND("卖基金",D228)),ISNUMBER(FIND("普通取现",D228)),ISNUMBER(FIND("快速取现",D228)),ISNUMBER(FIND("卖基金极速回活期宝",D228)),ISNUMBER(FIND("买基金取现",D228)),ISNUMBER(FIND("赎回",D228))),-1*G228,1*G228)</f>
+        <v>100000</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
@@ -20777,7 +20912,7 @@
         <v>81</v>
       </c>
       <c r="K229" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(OR(ISNUMBER(FIND("卖基金",D229)),ISNUMBER(FIND("普通取现",D229)),ISNUMBER(FIND("快速取现",D229)),ISNUMBER(FIND("卖基金极速回活期宝",D229)),ISNUMBER(FIND("买基金取现",D229)),ISNUMBER(FIND("赎回",D229))),-1*G229,1*G229)</f>
         <v>-100000</v>
       </c>
     </row>
@@ -20813,7 +20948,7 @@
         <v>81</v>
       </c>
       <c r="K230" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(OR(ISNUMBER(FIND("卖基金",D230)),ISNUMBER(FIND("普通取现",D230)),ISNUMBER(FIND("快速取现",D230)),ISNUMBER(FIND("卖基金极速回活期宝",D230)),ISNUMBER(FIND("买基金取现",D230)),ISNUMBER(FIND("赎回",D230))),-1*G230,1*G230)</f>
         <v>3500</v>
       </c>
     </row>
@@ -20849,7 +20984,7 @@
         <v>81</v>
       </c>
       <c r="K231" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(OR(ISNUMBER(FIND("卖基金",D231)),ISNUMBER(FIND("普通取现",D231)),ISNUMBER(FIND("快速取现",D231)),ISNUMBER(FIND("卖基金极速回活期宝",D231)),ISNUMBER(FIND("买基金取现",D231)),ISNUMBER(FIND("赎回",D231))),-1*G231,1*G231)</f>
         <v>3500</v>
       </c>
     </row>
@@ -20885,7 +21020,7 @@
         <v>81</v>
       </c>
       <c r="K232" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(OR(ISNUMBER(FIND("卖基金",D232)),ISNUMBER(FIND("普通取现",D232)),ISNUMBER(FIND("快速取现",D232)),ISNUMBER(FIND("卖基金极速回活期宝",D232)),ISNUMBER(FIND("买基金取现",D232)),ISNUMBER(FIND("赎回",D232))),-1*G232,1*G232)</f>
         <v>-28.56</v>
       </c>
     </row>
@@ -20921,7 +21056,7 @@
         <v>81</v>
       </c>
       <c r="K233" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(OR(ISNUMBER(FIND("卖基金",D233)),ISNUMBER(FIND("普通取现",D233)),ISNUMBER(FIND("快速取现",D233)),ISNUMBER(FIND("卖基金极速回活期宝",D233)),ISNUMBER(FIND("买基金取现",D233)),ISNUMBER(FIND("赎回",D233))),-1*G233,1*G233)</f>
         <v>-3500</v>
       </c>
     </row>
@@ -20957,7 +21092,7 @@
         <v>81</v>
       </c>
       <c r="K234" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(OR(ISNUMBER(FIND("卖基金",D234)),ISNUMBER(FIND("普通取现",D234)),ISNUMBER(FIND("快速取现",D234)),ISNUMBER(FIND("卖基金极速回活期宝",D234)),ISNUMBER(FIND("买基金取现",D234)),ISNUMBER(FIND("赎回",D234))),-1*G234,1*G234)</f>
         <v>-3500</v>
       </c>
     </row>
@@ -20993,7 +21128,7 @@
         <v>81</v>
       </c>
       <c r="K235" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(OR(ISNUMBER(FIND("卖基金",D235)),ISNUMBER(FIND("普通取现",D235)),ISNUMBER(FIND("快速取现",D235)),ISNUMBER(FIND("卖基金极速回活期宝",D235)),ISNUMBER(FIND("买基金取现",D235)),ISNUMBER(FIND("赎回",D235))),-1*G235,1*G235)</f>
         <v>-3500</v>
       </c>
     </row>
@@ -21029,7 +21164,7 @@
         <v>81</v>
       </c>
       <c r="K236" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(OR(ISNUMBER(FIND("卖基金",D236)),ISNUMBER(FIND("普通取现",D236)),ISNUMBER(FIND("快速取现",D236)),ISNUMBER(FIND("卖基金极速回活期宝",D236)),ISNUMBER(FIND("买基金取现",D236)),ISNUMBER(FIND("赎回",D236))),-1*G236,1*G236)</f>
         <v>3500</v>
       </c>
     </row>
@@ -21065,7 +21200,7 @@
         <v>81</v>
       </c>
       <c r="K237" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(OR(ISNUMBER(FIND("卖基金",D237)),ISNUMBER(FIND("普通取现",D237)),ISNUMBER(FIND("快速取现",D237)),ISNUMBER(FIND("卖基金极速回活期宝",D237)),ISNUMBER(FIND("买基金取现",D237)),ISNUMBER(FIND("赎回",D237))),-1*G237,1*G237)</f>
         <v>-7.16</v>
       </c>
     </row>
@@ -21101,7 +21236,7 @@
         <v>81</v>
       </c>
       <c r="K238" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(OR(ISNUMBER(FIND("卖基金",D238)),ISNUMBER(FIND("普通取现",D238)),ISNUMBER(FIND("快速取现",D238)),ISNUMBER(FIND("卖基金极速回活期宝",D238)),ISNUMBER(FIND("买基金取现",D238)),ISNUMBER(FIND("赎回",D238))),-1*G238,1*G238)</f>
         <v>7000</v>
       </c>
     </row>
@@ -21137,7 +21272,7 @@
         <v>81</v>
       </c>
       <c r="K239" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(OR(ISNUMBER(FIND("卖基金",D239)),ISNUMBER(FIND("普通取现",D239)),ISNUMBER(FIND("快速取现",D239)),ISNUMBER(FIND("卖基金极速回活期宝",D239)),ISNUMBER(FIND("买基金取现",D239)),ISNUMBER(FIND("赎回",D239))),-1*G239,1*G239)</f>
         <v>3500</v>
       </c>
     </row>
@@ -21173,7 +21308,7 @@
         <v>81</v>
       </c>
       <c r="K240" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(OR(ISNUMBER(FIND("卖基金",D240)),ISNUMBER(FIND("普通取现",D240)),ISNUMBER(FIND("快速取现",D240)),ISNUMBER(FIND("卖基金极速回活期宝",D240)),ISNUMBER(FIND("买基金取现",D240)),ISNUMBER(FIND("赎回",D240))),-1*G240,1*G240)</f>
         <v>3500</v>
       </c>
     </row>
@@ -21209,7 +21344,7 @@
         <v>81</v>
       </c>
       <c r="K241" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(OR(ISNUMBER(FIND("卖基金",D241)),ISNUMBER(FIND("普通取现",D241)),ISNUMBER(FIND("快速取现",D241)),ISNUMBER(FIND("卖基金极速回活期宝",D241)),ISNUMBER(FIND("买基金取现",D241)),ISNUMBER(FIND("赎回",D241))),-1*G241,1*G241)</f>
         <v>7000</v>
       </c>
     </row>
@@ -21245,7 +21380,7 @@
         <v>17</v>
       </c>
       <c r="K242" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(OR(ISNUMBER(FIND("卖基金",D242)),ISNUMBER(FIND("普通取现",D242)),ISNUMBER(FIND("快速取现",D242)),ISNUMBER(FIND("卖基金极速回活期宝",D242)),ISNUMBER(FIND("买基金取现",D242)),ISNUMBER(FIND("赎回",D242))),-1*G242,1*G242)</f>
         <v>-6.39</v>
       </c>
     </row>
@@ -21281,7 +21416,7 @@
         <v>81</v>
       </c>
       <c r="K243" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(OR(ISNUMBER(FIND("卖基金",D243)),ISNUMBER(FIND("普通取现",D243)),ISNUMBER(FIND("快速取现",D243)),ISNUMBER(FIND("卖基金极速回活期宝",D243)),ISNUMBER(FIND("买基金取现",D243)),ISNUMBER(FIND("赎回",D243))),-1*G243,1*G243)</f>
         <v>-3500</v>
       </c>
     </row>
@@ -21317,7 +21452,7 @@
         <v>81</v>
       </c>
       <c r="K244" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(OR(ISNUMBER(FIND("卖基金",D244)),ISNUMBER(FIND("普通取现",D244)),ISNUMBER(FIND("快速取现",D244)),ISNUMBER(FIND("卖基金极速回活期宝",D244)),ISNUMBER(FIND("买基金取现",D244)),ISNUMBER(FIND("赎回",D244))),-1*G244,1*G244)</f>
         <v>3500</v>
       </c>
     </row>
@@ -21353,13 +21488,13 @@
         <v>81</v>
       </c>
       <c r="K245" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(OR(ISNUMBER(FIND("卖基金",D245)),ISNUMBER(FIND("普通取现",D245)),ISNUMBER(FIND("快速取现",D245)),ISNUMBER(FIND("卖基金极速回活期宝",D245)),ISNUMBER(FIND("买基金取现",D245)),ISNUMBER(FIND("赎回",D245))),-1*G245,1*G245)</f>
         <v>-5000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J194" xr:uid="{3E5667DD-794A-4223-B0B6-2B21E8545DE8}"/>
-  <sortState ref="A213:J245">
+  <autoFilter ref="A1:J246" xr:uid="{3E5667DD-794A-4223-B0B6-2B21E8545DE8}"/>
+  <sortState ref="A213:J247">
     <sortCondition ref="A213"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -21373,8 +21508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C472EC2-BF49-4D48-843D-D6F2646F1A49}">
   <dimension ref="A1:Q744"/>
   <sheetViews>
-    <sheetView topLeftCell="A686" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G744" sqref="G744"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21573,11 +21708,11 @@
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="J5" s="20" t="s">
-        <v>89</v>
+      <c r="J5" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="K5" s="16">
-        <v>1590.5899999999997</v>
+        <v>1085.17</v>
       </c>
       <c r="N5">
         <v>110027</v>
@@ -21609,11 +21744,11 @@
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="J6" s="21" t="s">
-        <v>71</v>
+      <c r="J6" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="K6" s="16">
-        <v>320.20999999999998</v>
+        <v>1590.5899999999997</v>
       </c>
       <c r="N6">
         <v>340001</v>
@@ -21646,10 +21781,10 @@
         <v>是</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K7" s="16">
-        <v>540.72999999999979</v>
+        <v>320.20999999999998</v>
       </c>
       <c r="N7">
         <v>1061</v>
@@ -21682,10 +21817,10 @@
         <v>是</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K8" s="16">
-        <v>729.64999999999986</v>
+        <v>540.72999999999979</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -21714,11 +21849,11 @@
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>90</v>
+      <c r="J9" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="K9" s="16">
-        <v>2980.2599999999989</v>
+        <v>729.64999999999986</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -21747,11 +21882,11 @@
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>73</v>
+      <c r="J10" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="K10" s="16">
-        <v>5251.6900000000005</v>
+        <v>2980.2599999999989</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -21780,11 +21915,11 @@
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="J11" s="20" t="s">
-        <v>88</v>
+      <c r="J11" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="K11" s="16">
-        <v>577.20000000000005</v>
+        <v>5251.6900000000005</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -21814,10 +21949,10 @@
         <v>是</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K12" s="16">
-        <v>1341.2000000000003</v>
+        <v>577.20000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -21846,11 +21981,11 @@
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>89</v>
+      <c r="J13" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="K13" s="16">
-        <v>3333.2900000000004</v>
+        <v>168.34999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -21880,10 +22015,10 @@
         <v>是</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K14" s="16">
-        <v>342.87</v>
+        <v>160.29000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -21913,10 +22048,10 @@
         <v>是</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K15" s="16">
-        <v>178.49</v>
+        <v>248.56000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -21945,11 +22080,11 @@
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="J16" s="21" t="s">
-        <v>63</v>
+      <c r="J16" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="K16" s="16">
-        <v>2811.9300000000003</v>
+        <v>1341.2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -21978,11 +22113,11 @@
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>61</v>
+      <c r="J17" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="K17" s="16">
-        <v>10907.71</v>
+        <v>333.17999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -22011,6 +22146,12 @@
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
+      <c r="J18" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="16">
+        <v>222.03000000000006</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -22038,6 +22179,12 @@
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
+      <c r="J19" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="16">
+        <v>785.99</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -22065,6 +22212,12 @@
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
+      <c r="J20" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="16">
+        <v>3333.2900000000004</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -22092,6 +22245,12 @@
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
+      <c r="J21" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="16">
+        <v>342.87</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -22119,6 +22278,12 @@
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
+      <c r="J22" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="16">
+        <v>178.49</v>
+      </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -22149,6 +22314,12 @@
         <f t="shared" si="0"/>
         <v>是</v>
       </c>
+      <c r="J23" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="16">
+        <v>2811.9300000000003</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -22175,6 +22346,12 @@
       <c r="H24" t="str">
         <f t="shared" si="0"/>
         <v>是</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24" s="16">
+        <v>10907.71</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
